--- a/成语典故.xlsx
+++ b/成语典故.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$41:$A$388</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="776">
   <si>
     <t>杯水车薪</t>
   </si>
@@ -28,12 +31,6 @@
     <t>苏厉，是战国时期从事政治外交活动的谋士。有一次，他听说秦国大将白起将要带兵攻打魏国都城大梁，而大梁一旦被秦占领，附近的西周王室就有危险。于是，苏厉对周王说：“白起这几年打败过韩、赵等国，夺取了许多土地。现在他将要带兵攻打大梁，大梁一旦被白起攻下，周王室危险了！您应当想办法阻止白起出兵。”于是周王派苏厉前往秦国。苏厉对白起说：“从前，楚国有一个名叫养由基的人，是一个射箭能手，他距离柳树一百步放箭射击，每箭都射中柳叶的中心，百发百中，左右看的人都说射得很好，可是一个过路的人却说：‘这个人，可以教他该怎样射了。’,养由基听了这话，心里很不舒服，就说：‘大家都说我射得好，你竟说可以教我射了，你为什么不来替我射那柳叶呢！’,那个人说：‘我不能教你怎样伸左臂屈右臂的射箭本领；不过你有没有想过，你射柳叶百发百中，但是却不善于休息，等一会疲倦了，一箭射不中，就会前功尽弃。’”讲完这段故事，苏厉把话题拉回来说：“你已经打败了韩、赵等国，取得了许多土地，功劳很大。现在，又要派你带兵出关，经过西周王室的所在地去进攻大梁，如果这一仗不能取胜，就会前功尽弃。你不如说自己生病，不要出兵为好。”,白起听了，笑着说：“我所向披靡，百战百胜，怎么会不能取胜呢？”,于是，他没有被苏厉说动，率兵攻打魏国，果然又大获全胜，夺取了魏国的几十座城池。</t>
   </si>
   <si>
-    <t>土崩瓦解</t>
-  </si>
-  <si>
-    <t>出处：《淮南子·泰族训》纣之地，左东海，右流沙，前交趾，后幽都，师起容关，至蒲水；士亿有余万，然皆倒失而射，傍栽而战。武王左操黄戟，右执白旄以麾之，则瓦解而走，遂土崩而下。释义：“崩”，倒塌。“解”破裂。像泥土倒塌瓦片破裂。比喻彻底垮台或溃败。故事：商纣王是商朝的末代君主，是一个暴虐无道的昏君。他贪恋酒色、荒淫无度，整日花天酒地，寻欢作乐，不理朝政。他听信谗言，重用奸臣，残害忠良，戮杀无辜，他强征暴敛，动用巨资，强迫百姓为自己修建宫苑，他惨无人道，制造种种酷刑，以观看人受刑后的痛苦为乐。在他暗无天日的统治下，百姓无不怨声载道，苦不堪言。虽说商朝的疆土辽阔广袤，左起东海，右至杳无人烟的沙漠，南从五岭以南的交趾，北至遥远的幽州，军队从容关一直驻扎到蒲水。士兵不下数万，但打起仗来，因为兵士不愿意为纣王战死，所以“倒矢而射”把兵器扔在一边。商朝军队士气如此低落，商朝的政权自然是岌岌可危了。所以，当周武王左手擎着用黄金作装饰的大戟，右手节用牦牛尾装饰的白色旌旗、坐着战车，势不可挡地杀来时，所到之处，无不披靡，讷纣王军队的溃败，商纣王政权的垮台，就如瓦片的碎裂，泥上倒塌，迅速而无法挽救。</t>
-  </si>
-  <si>
     <t>朝三暮四</t>
   </si>
   <si>
@@ -46,12 +43,6 @@
     <t>汉武帝（刘彻）听说李陵带着部队深入到匈奴的国境，士气旺盛，心里很高与。这时，许多大臣都凑趣地祝贺皇帝英明，善于用人。后来李陵战败投降，武帝非常生气，原来祝贺的大臣也就反过来责骂李陵无用和不忠。这时司马迁站在旁边一声不响，武帝便问他对此事的意见，司马迁爽直地说李陵只有五千步兵，却被匈奴八万骑兵围住，但还是连打了十几天仗，杀伤了一万多敌人，实算是一位了不起的将军了。最后因粮尽箭完，归路又被截断，才停止战斗，李陵不是真投降，而是在伺机报国。他的功劳还是可以补他的失败之罪的。武帝听他为李陵辩护，又讽刺皇上近亲李广利从正面进攻匈奴的庸儒无功，怒将司马迁下在狱里。次年，又误传李陵为匈奴练兵，武帝不把事情弄清楚，就把李陵的母亲和妻子杀了。廷尉杜周为了迎合皇帝，诬陷司马迁有诬陷皇帝之罪，竟把司马迁施予最残酷、最耻辱的“腐刑”。司马迁受到了这种摧残，痛苦之余，就想自杀；但转念一想，像他这样地位低微的人死去，在许多大富大贵的人的眼中，不过像“九毛亡一毛”，不但得不到同情，且更会惹人耻笑。于是决心忍受耻辱，用自己的生命和时间来艰苦地、顽强地完成伟大的“史记”的写作。古人所谓有大勇的人才有大智，司马迁便是这样的人。他知道在他所处的年代里，死一个像他那样没地位、没名望的人，比死条狗还不如，因此他勇敢地活下去，终于完成了那部空前伟大的历史的著作——“史记”。司马迁把他这种思想转娈的情况告诉也的好友任少卿，后来的人便是根据他信中所说的“九牛亡一毛”一句话，引伸成“九牛一毛”这句成语，用来譬喻某种东西或某种人材仅是极多数里面的一部份，好像九条牛身上的一根毛一样。</t>
   </si>
   <si>
-    <t>后起之秀</t>
-  </si>
-  <si>
-    <t>出处宋·刘义庆《世说新语赏誉》范豫章谓王荆州，“卿风流逸望，真后来之秀。”释义“秀”，优秀的意思，表示后辈中的优秀者。这则成语也称“后起之秀”。故事东晋时，王忱(chen)在少年时代就显露出才气，很受亲友的推祟。他的舅父范宁，是当时著名的经学家，对王忱也很器重，有著名文士拜访，他总让王忱到场接待。有一次，王忱去看望舅舅，遇到了比他早出名的张玄。舅舅要他俩交谈交谈。张玄早就听说王忱志趣不凡，很想与他谈谈。他年龄比王忱要大，自然希望王忱先给自己打招呼，就端正地坐着等候。不料，王忱见张玄这等模样，看不上眼．也默默坐着，一言不发。张玄见他这样，自己又放不下架子，对坐了一会，怏怏不乐地离去。事后，范宁责备王忱说：“张玄是吴中的优秀人才，你为什么不好好与他谈谈?’’王忱傲慢地回答说：“他要是真心想和我来往，完全可以来找我谈谈嘛。”范宁听了这话，倒反而称赞起外甥来了：“你这样风流俊逸，真是后来的优秀人才。””玉忱笑着回答说：“没有您这样的舅舅，哪来我这样的外甥?”</t>
-  </si>
-  <si>
     <t>趋炎附势</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t>三令五申春秋时侯，有一位著名军事学家名孙武，他携带自己写的“孙子兵法”去见吴王阖庐。吴王看过之后说：“你的十三篇兵法，我都看过了，是不是拿我的军队试试？”孙武说可以。吴王再问：“用妇女来试验可以吗？”孙武也说可以。于是吴王召集一百八十名宫中美女，请孙武训练。孙武将她们分为两队，用吴王宠爱的两个宫姬为队长，并叫她们每个人都拿着长戟。队伍站好后，孙武便发问：“你们知道怎样向前向后和向左向右转吗？”众女兵说：“知道。”孙武再说：“向前就看我心胸；向左就看我左手；向右就看我右手；向后就看我背后。”众女兵说：“明白了。”于是孙武使命搬出铁钺（古时杀人用的刑具），三番五次向她们申戒。说完便击鼓发出向右转的号令。怎知众女兵不单没有依令行动，反而哈哈大笑。孙武见状说：“解释不明，交代不清，应该是将官们的过错。”于是又将刚才一番话详尽地再向她们解释一次。再而击鼓发出向左转的号令。众女兵仍然只是大笑。孙武便说：“解释不明，交代不清，是将官的过错。既然交代清楚而不听令，就是队长和士兵的过错了。”说完命左右随从把两个队长推出斩首。吴王见孙武要斩他的爱姬，急忙派人向孙武讲情，可是孙武说：“我既受命为将军，将在军中，君命有所不受！”遂命左右将两女队长斩了，再命两位排头的为队长。自此以后，众女兵无论是向前向后，同左向右，甚至跪下起立等复杂的动作都认真操练，再不敢儿戏了。这故事原出于“史记”的“孙子吴起列传”。后来；人们把孙向女兵再三解释的做法，引伸为“三令五申”，即反覆多次向人告诫的意思。例如某地政府向食品商店屡次告诫食品要清洁卫生，以免损害顾客健康，我们便可说：对于食品商店要保证清洁卫生，政府已“三令五申”：大家都早已知道了。</t>
   </si>
   <si>
-    <t>力不从心</t>
-  </si>
-  <si>
-    <t>出处：《后汉书·班超传》如有卒暴，超之气力，不能从心释义：比喻力量不够，无法实现愿望。故事：东汉时，班超受明帝派遣，率领几十个人现使西域，屡建奇功。然而，班超在古西域经过了27个年头，年事已高，身体衰弱，思家心切，于是就写了封信，叫他的儿子捎至汉朝，请求和帝刘肇把他调回。此信未见反应。他的妹妹班昭又上书皇帝，申明哥哥的意思。信中有这样的几句话：“班超和他同去西域的人中，年龄最大，现在已过花甲之年，体弱多病，头发已白，两手不遂，耳朵不灵，眼睛不亮，扶着手杖才能走路……如果有淬不及防的暴乱事件发生，班超的气力，不能顺从心里的意愿了，这样，对上会损害国家的长治之功，对下会毁坏忠臣好不容易取得的成果，实在令人痛心呀！”和帝刘肇被深深地感动了，马上传旨调班超回汉。班超回到洛阳不到一个月，就因胸胁病加重而支世，终年71岁。</t>
-  </si>
-  <si>
     <t>一尘不染</t>
   </si>
   <si>
@@ -166,12 +151,6 @@
     <t>南北朝的时候，北方的北周和南方的陈国以长江为界。  北周的宰相杨坚，废了周静帝，自己当皇帝，建立了隋朝。  他决心要灭掉陈国，曾说：“我是全国老百姓的父母，难道能因为有一条像衣带那样窄的长江隔着，就看着南方百姓受苦而不拯救他们吗？,后来人们就用“一衣带水”来比喻只隔了一条狭窄水域的，靠得非常近的两地。</t>
   </si>
   <si>
-    <t>以貌取人</t>
-  </si>
-  <si>
-    <t>出处《史记·仲尼弟子列传》孔子有许许多多弟子，其中有一个名叫宰予的，能说会道，利口善辩。他开始给孔子的印象不错，但后来渐渐地露出了真相：既无仁德又十分懒惰；大白天不读书听讲，躺在床上睡大觉。为此，孔子骂他是“朽木不可雕”。孔子的另一个弟子，叫澹台灭明，字子羽，是鲁国人，比孔子小三十九岁．子羽的体态和相貌很丑陋，想要事奉孔子。孔子开始认为他资质低下，不会成才。但他从师学习后，回去就致力于修身实践，处事光明正大，不走邪路；不是为了公事，从不去会见公卿大夫。后来，子羽游历到长江，跟随他的弟子有三百人，声誉很高，各诸侯国都传诵他的名字。孔子听说了这件事，感慨他说：“我只凭言辞判断人品质能力的好坏，结果对宰予的判断就错了；我只凭相貌判断人品质能力的好坏，结果对子羽的判断又错了。”</t>
-  </si>
-  <si>
     <t>扑朔迷离</t>
   </si>
   <si>
@@ -226,12 +205,6 @@
     <t>岳阳楼在现在湖南省的岳市，也就是原旧县城的西门城楼。该楼高三层，向下可看到波光粼粼的洞庭溯。此楼初建于唐朝初 年，到北宋年间又加以重修。  膝子京和范仲淹是好朋友：他们两个都在公元1015年考取进士。公元1044年(宋仁宗庆历四年)膝子京担任了岳州知州，次年就 重修岳阳楼，并请好友范仲淹为他写篇文章，来记叙这件事。范仲淹就欣然接受了好友的请求，写成了《岳阳楼记》这篇传诵千古的文章。文中写到了在不同的时令、气候条件下，登上岳阳楼所看到的景 色和不同的感受。  “至若春和景明，……登斯楼也，则有心旷神怡，宠辱偕忘，把酒临风，其喜洋洋者矣。”写的就是在春风和暖，阳光明媚的时候登上岳阳楼所看到的景色。通过写上一自然段“若夫淫雨霏霏....登斯楼也，则有去国怀乡，忧谗畏讥，满目萧然，感极而悲者矣。”形成对比。这时，你就会觉得心胸开阔，豁然开朗，精神十分愉快；这时，所有的一切荣辱得失都会忘记得一干二净，你再端起洒杯，在阳光的沐浴下，清风的吹拂下，举杯畅饮，这乐趣，真是无穷无尽啊!</t>
   </si>
   <si>
-    <t>有恃无恐</t>
-  </si>
-  <si>
-    <t>出处《左传·俗公二十六年》春秋时，中原霸主齐桓公死后，他的儿子齐孝公继承了王位。鲁僖公二十六年(公元前634年)夏天，鲁国遭到了严重的灾荒，齐孝公乘人之危，亲率大军，浩浩荡荡地向东进发，去讨伐鲁国。鲁僖公得知消息，知道鲁军无法和齐军对抗，便派大夫展喜带着牛羊、酒食去稿劳齐军。这时，齐孝公的军队还没有进入鲁国国境，展喜日夜兼程，在齐鲁边界上遇到了齐孝公。展喜对齐孝公说；“我们鲁国的君王听说大王亲自到我国，特地派我前来慰劳贵军。”“你们鲁国人感到害伯了吗?”齐孝公傲慢他说。展喜是个能言善辩的人，他不卑不亢地回答说：“那些没有见识的人可能有些害伯，但我们鲁国的国君和大臣们却一点也不害怕。”’齐孝公听了，轻蔑他说：“你们鲁国国库空虚，老百姓家中缺粮，地里没有庄稼，连青草也看不到，你们凭什么不感到害怕呢?”展喜胸有成竹，不慌不忙他说：“我们依仗的是周成王的遗命。当初，我们鲁国的祖先周公和齐国的祖先姜太公，忠心耿耿、同心协力地辅助成王，废寝忘食地治理国事，终于使天下大治。成王对他俩十分感激，让他俩立下盟誓，告诫后代的子子孙孙，要世代友好，不互相侵害，这都是有案可稽的：我们的祖先是这样友好，大王您怎么会贸然废弃祖先盟约，进攻我们鲁国呢?我们正是依仗着这一点，才不害怕。”齐孝公听了，感到展喜的活很有道理，就打消了讨伐的念头，班师回国了。</t>
-  </si>
-  <si>
     <t>忧心如焚</t>
   </si>
   <si>
@@ -250,12 +223,6 @@
     <t>相传在战国时代宋国，有一个农民，日出而作，日入而息．遇到好年景，也不过刚刚吃饱穿暖；一遇灾荒，可就要忍饥挨饿了．他想改善生活，但他太懒，胆子又特小，干什么都是又懒又怕，总想碰到送上门来的意外之财。奇迹终于发生了。深秋的一天，他正在田里耕地，周围有人在打猎。吆喝之声四处起伏，受惊的小野兽没命的奔跑。突然，有一只兔子，不偏不倚，一头撞死在他田边的树根上。当天，他美美地饱餐了一顿。从此，他便不再种地。一天到晚，守着那神奇的树根，等着奇迹的出现。成语“守株待兔”，比喻亡想不劳而得，或死守狭隘的经验，不知变通。</t>
   </si>
   <si>
-    <t>抛砖引玉</t>
-  </si>
-  <si>
-    <t>唐代高僧从谂掸师，主持赵郡观音院多年。相传他对僧徒参禅要求极严，必需人人静坐敛心，集中专注，绝不理会外界的任何干扰，达到凝思息妄、身心不动的入定境界。有一天，众僧晚参，从谂禅师故意说：“今夜答话，有闻法解悟者出来。”,此时徒众理应个个盘腿正坐，闭目凝心，不动不摇。恰恰有个小僧沉不住气，竟以解问者自居，走出礼拜。从谂掸师瞟了他一眼，缓声说道：“刚才抛砖引玉，却引来一块比砖还不如的土坯！”,另外，有一个抛砖引玉的故事。据《历代诗话》、《谈证》等书记述：唐代诗人赵嘏，以佳句“长笛一声人倚楼”博得大诗人杜牧的赞赏，人们因此称赵嘏为“赵倚楼”，当时另有一位名叫常建的诗人，一向仰慕赵嘏的诗才。他听说赵嘏来到吴地，料他一定会去灵岩寺游览，便先赶到灵岩，在寺前山墙上题诗两句，希望赵嘏看到后能添补两句，续成一首。果然赵嘏游览灵岩寺看到墙上两句诗，不由诗兴勃发，顺手在后面续了两句，补成一首完整的绝诗。常建的诗没有赵嘏写得好，他以较差的诗句引出赵嘏的佳句，后人便把这种做法叫作“抛砖引玉”。其实，常建、赵嘏并非同时代人，他们各自的活动年代相距百年之多，续诗之说不可信，只是由于这段故事很出名，人们也就承认它是成语“抛砖引玉”的出处之一。</t>
-  </si>
-  <si>
     <t>摩肩接踵</t>
   </si>
   <si>
@@ -292,12 +259,6 @@
     <t>战国时期，廉颇是赵国有名的良将，他战功赫赫，被拜为上卿，蔺相如“完璧归”有功，被封为上大夫不久，又在渑池秦王与赵王相会的时候，维护了赵王的尊严，因此也被提升为上卿，且位在廉颇之上。廉颇对此不服，扬言说：“我要是见了他，一定要羞辱他一番。“蔺相如知道后，就有意不与廉颇会面。别人以为蔺相如害怕廉颇，廉颇为此很得意。可是商相如却说：“我哪里会怕廉将军？不过，现在秦国倒是有点怕我们赵国，这主要是因为有廉将军和我两个人在。如果我跟他互相攻击，那只能对秦国有益。我之所以避开廉将军，是以国事为重，把私人的恩怨丢一边儿了！”这话传到了廉颇耳朵里，廉颇十分感动，便光着上身，背负荆杖，来到蔺相如家请罪。他羞愧地对商相如说：“我真是一个糊涂人，想不到你能这样地宽宏大量！”两个人终于结成誓同生死的朋友。</t>
   </si>
   <si>
-    <t>兴高彩烈</t>
-  </si>
-  <si>
-    <t>出处刘勰《文心雕龙》稽康，字皮夜，他是魏晋之间有名的“竹林七贤’之一，风度翩翩，文才超群，当时便有许多人倾慕他。稽康一生写了不少诗和论文。他在诗中曾一再提到环境的险恶。“鸟尽良弓藏，谋极身心危，吉凶虽在己，世路多险峨。”这些诗句对当时的现实作了无情的揭露和批判。他的论文，则观点鲜明，论点集中，具有根强的论辩力，充满了对当时社会的揭露和对礼法之士的批判。如他在《养生论》中主张“清虚静泰，少私寡欲”，批判士族中的人过着“声色是耽”的纵欲生活，尤其对又想长寿又要享乐这类人的心理刻画更是特别精采。他说，这类人“欲之患其得，得之惧其失，苟患失之所不至矣。在上何得不骄，持满何得不溢，求之何得不苟，得之何得不失那!”稽康就是这样，把魏晋士大夫那种得失急聚、生死无常所产生的极为贪婪的变态心理一语破的，刻划得淋漓尽致。</t>
-  </si>
-  <si>
     <t>脍炙人口</t>
   </si>
   <si>
@@ -346,12 +307,6 @@
     <t>商朝末年，商纣王暴虐无道，激起老百姓极大的愤慨，就连诸侯们也看不过，认为他不像一个治国之君。当时有一个诸侯叫姬昌，他主张实施仁政，反对纣王的暴政，纣王便把他抓了起来。后来他的儿子姬发即位，便联合诸侯起兵讨伐商纣，大军渡过黄河，向商都进发，在牧野这个地方与纣王的军队交战，打了一场大仗。由于姬发所率的是仁义之师，深得老百姓的欢迎，百姓因而给予了很大的支持，而老百姓对纣王的军队却是深恶痛绝的，结果纣王打了大败仗，最后自焚而死，商朝也灭亡了。  姬发领兵进攻纣王之前，曾对全军发表誓言，列举了商纣的种种罪行，说商纣所做的坏事巳经到头了，他罪大恶极，应该受到惩罚。号召大家齐心协力，为民除害。</t>
   </si>
   <si>
-    <t>人杰地灵</t>
-  </si>
-  <si>
-    <t>人杰地灵出处:唐·王勃《滕王阁序》物华天宝，龙光射牛斗之墟；人杰地灵，徐孺下陈蕃之榻。释义:“杰”，指有杰出才能的人。“灵”特别美好的意思。这则成语表示杰出人物在那里出生或他曾到过那里，所以那里就成了名胜之地。故事:公元663年九月初九重阳节，洪州阎都督在新落成的滕王阁大宴宾客，当地知名人士都应邀出席。王勃正好路过这里，也应邀参加。因为他才十四岁，所以被安排在不显眼的座位上。阎都督的女婿很会写文章，阎都督叫他预先写好一篇序文，以便当众炫耀一番。大家酒酣之际，阎都督站起来说：“今天洪州的文人雅士欢聚一堂，不可无文章记下这次盛会，各位都是当今名流，请写赋为序，使滕王阁与妙文同垂千古，话毕，侍候的人将纸笔放在众人面前。但是大家推来推去，没有一个人动笔。后来推到王勃面前，王勃竞将纸笔收下，低头沉思。过了一会儿，王勃卷起袖口，挥毫即书。阎都督见是一个少年动笔，不太高兴，走出大厅，凭栏眺望江景，并嘱咐侍从将王勃写的句子，随时抄给他看。才过一会儿，侍从抄来《滕王阁序》的开头囚句：“南昌故郡，洪都新府。星分翼轻，地接衡庐。”这四句的意思是：滕玉阁所在之处过去属南昌郡治，现在归你洪州府。它的上空有冀、鞍两垦，地面连接衡山、庐山两山。阎都督看了，认为这不过是老生常谈，谁都会写，一笑置之。其实，这十六个字把南昌的历史和地理的概况都交代清楚了，纵横交错，起笔不凡。接着，侍从又抄来了两句，“襟三江而带五湖，控蛮荆而引匝越。”阎都督看了有些吃惊。他想，这少年以三江(指荆江、湘江和浙江)为衣襟，又将五湖(指太湖、都阳湖。、青草湖、丹阳湖、洞庭湖)为飘带，既控制着南方辽阔的楚地，又接引着东方肥美的越地，大有举足轻重。扭动乾坤之气。写出这样有气魄的句子，不是大胸襟、大手笔是不可能的。侍从接着抄上来几句，更使阎都督吃掠：“物华天宝，龙光射牛斗之墟；人杰地灵，徐孺下陈蕃之榻。”原来，王勃在这里用了两个典故。前一个典故是说，物有精华，天有珍宝，龙泉剑的光芒直射天上二十八星宿中的斗宿和牛宿之间。意思是洪州有奇宝。后—个典故是说，东汉时南昌人徐孺家贫而不愿当官，但与大守陈蕃是好朋友。陈蕃特地设一只榻，专供接待徐孺之用。意思是洪州有杰出的人才。阎都督越看越有滋味，越看越钦佩，连声称赞“妙!妙!妙文难得!”再也不让女婿把预先写好的序文拿出来了。王勃写完后，走到阎都督面前，谦逊他说：“出丑之作，望都督指教。”阎都督高兴他说：“你真是当今的奇才啊!”于是重新就座，净都督把王勃奉为—上宾，并亲自陪坐。</t>
-  </si>
-  <si>
     <t>奇货可居</t>
   </si>
   <si>
@@ -364,12 +319,6 @@
     <t>“奋不顾身”这则成语的意思是奋勇向前，不顾个人安危。这个成语来源于《汉书.司马迁传》，然仆观其为人自奇士，事亲孝，与士信，临财廉，取予义，分别有让，恭俭下人，常思奋不顾身，以徇国家之急。李陵，字少卿，是汉武帝时的著名大将，很受汉武帝信用，任命他为骑都尉，率军抵御匈奴的入侵。李陵擅长骑射，又懂得兵法，当时很得朝廷信任。不料，李陵在和匈奴的战斗中，由于寡不敌从，无奈投降了匈奴。听说李陵投降，汉武帝很是生气，认为李陵辱没了自己对他的信任，朝中大臣也都纷纷指责李陵没有骨气。只有太史令司马迁不这样认为，他说：“我和李陵一向没什么交情，但我见他为人很讲义气，孝顺父母，友爱兵士。他常常想奋不顾身地解救国家的灾难，所以，我认为李陵这次在领兵不到五千的情况下，与数万名敌兵对阵，最后由于伤亡惨重，弹尽粮绝，归路被切断，才被迫投降，是情有可原的。而且我还认为，他这次投降，并非贪生，而是想等待以后有利的时机再来报答国家。”司马迁说得在情在理，但汉武帝却认为他是替李陵辩护，是非不分，将他关进了监狱，施行“腐刑”。以后，汉武帝还杀了李陵全家。李陵知道后很是痛心，于是在匈奴娶妻成家，至死不回故土，未能实现他奋不顾身、为国捐躯的愿望。</t>
   </si>
   <si>
-    <t>华而不实</t>
-  </si>
-  <si>
-    <t>出处《左传·文公五年》　　且华而不实，怨之所聚也。　　释义“华”，花，开花。“实”，果实。光开实不结果实。比喻外表好看，而没有实际内容。也指表面上很有学问，实际腹中空空的人。　　故事　春秋时，晋国大夫阳处父出使到魏国去，回来路过宁邑，住在一家客店里。店主姓赢(ying)，看见阳处父相貌堂堂，举止不凡，十分钦佩，悄悄对妻子说：“我早想投奔一位品德高尚的人，可是多少年来，随时留心，都没找到一个合意的。今天我看阳处父这个人不错，我决心跟他去了。”店主得到阳处父的同意，离别妻子，跟着他走了。一路上，阳处父同店主东拉西扯，不知谈些什么。店主一边走，一边听。刚刚走出宁邑县境，店主改变了主意，和阳处父分手了。店主的妻子见丈夫突然折回，心中不明，问道。“你好不容易遇到这么个人，怎么不服他去呢?你不是决心很大吗?家里的事你尽管放心好了。”“我看到他长得一表人才，以为他可以信赖，谁知听了他的言论却感到非常讨厌。我怕跟他一去，没有得到教育，反倒遭受祸害，所以打消了原来的主意。”店主说。这阳处父，在店主的心目中，就是个”华而不实”的人。所以，店主毅然地离开了他。</t>
-  </si>
-  <si>
     <t>狼子野心</t>
   </si>
   <si>
@@ -400,12 +349,6 @@
     <t>战国时期，孟子教导他的学生不要做自暴自弃的人，学生不明白。孟子解释道自暴就是说话不遵守礼义，自己残害自己。自弃就是心里想的不是仁义，自己抛弃自己。仁是最安适的住宅，义是最正确的道路，一切都得按仁义来办。</t>
   </si>
   <si>
-    <t>气壮山河</t>
-  </si>
-  <si>
-    <t>出处宋·陆游《老学庵笔记》赵元镇丞相与谪朱崖，病亟，自书铭旌：“身骑箕，尾归天上，气作山河壮本朝。”释义比喻人的豪迈之气如同高山大河。故事南宋大臣赵鼎出身贫寒，四岁就失去父亲，在母亲抚养和教育下成长。他二十一岁考中进士，当官时敢于批评权贵，受到宰相吴敏赏识，被调到都城开封任职。1125年冬，北方的金国出兵南侵。次年秋攻陷太原，严重地威胁到宋朝的安全。昏庸懦弱的宋钦宗惊慌失措，赶紧召集文武大臣商议对策。一些贪生怕死的大臣，主张割让土地向金国求和。赵鼎与这些大臣的看法不同。他说：“祖先留下来的国土，怎能拱手送给别人?望陛下千万不要考虑这种意见!”可是，钦宗非常惧伯金兵，决心屈膝投降，把大好山河割让。金军使者来谈判时，要求把黄河以北的土地全部割让给金国，钦宗不敢违抗，竟答应了金军提出的要求。但是，金国统治者并不满足，他们命令部队继续甫下。这年底，金兵抵达开封城下。胆小如鼠的钦宗不等金军攻破，就亲自到金军营中乞求投降。不久，金兵统帅扣留了钦宗，让部下进城掠夺，然后把钦宗和他的父亲徽宗当作俘虏，连同搜刮到的大量金银财宝，一起返回金国。北宋王朝就此灭亡。不久，钦宗的弟弟康王赵构在南京建立了南末王朝，史称宋高祖。宋高祖即位初期，起用了一批主战派的大臣，赵鼎也在其中。曾经担任过宰相的秦桧，是主和派的头目，因结党专权而被罢职。赵鼎对他很警惕，曾经向人表示过，此人如果得志，我门就没有立足之地。不料、后来秦桧又一次被任命为宰相。他知道高宗只想偏安江南而不真心抗金，便竭力唆使高宗与全国讲和。赵鼎对他自然反对。于是，秦桧经常在高宗面前说赵鼎的坏话，使高宗对他逐渐失去信任。后来，高宗终于将他贬到外地去当官。赵鼎离京时，秦桧假惺惺地为他送行。但赵鼎并不领情，只是轻蔑地瞧了他一眼，拱拱手就走了。为此，秦桧更加忌恨赵鼎，将他越调越远，最后贬谪到朱崖。赵鼎在朱崖住了三年，熟人都不敢去看望他，生活非常困苦。秦桧知道他的处境后，认为他活得不可能长久，便嘱咐地方官每月向自己呈报他是否还活着。赵鼎六十二岁那年，终于患了重病。临死前，他把儿子叫到床前，悲愤他说道：“秦桧非要置我于死地。我不死，他可能会对你们下毒手；我死了，才可不再连累你们!”说罢，他叫儿子取来一面铭旌，在上面书写了一行字。它的意思是：我身骑箕、尾两座星宿回归上天，我的气概像高山大河那样雄壮豪迈地存在于本朝。几天后，赵鼎不食而死。</t>
-  </si>
-  <si>
     <t>因噎废食</t>
   </si>
   <si>
@@ -502,12 +445,6 @@
     <t>故事东汉桓帝当政的时候，陈留郡有个读书人，名叫边韶，字孝先；他很有些文才，在没有当官的时候，教了几百名学生。  边韶很有口才，说起话、讲起课来头头是道，从没有回答不出问题来的。不过他有个毛病，就是爱打磕睡。因为他人胖，肚子大，打起磕睡来，学生看他的模佯很好笑。  有一天，他又和衣打磕睡。他的学生就私下编了句顺口溜嘲笑他：“边孝先，腹便便；懒读书，但欲眠。”意思是：边孝先是个大肚皮，懒得读书。只想睡觉。不料边韶醒来后，很快知道了这个顺口溜，于思马上编了几句顺口溜作答：“边为姓，孝为字。腹便便，王经笥。便欲眠，思经事。寐与周公通梦，静与孔子同意：师而可嘲，出何典记?”它的意思是：边是我的姓，孝是我的字，大肚皮，是装着五经的竹箱子。只想睡觉，去思考五经的事。睡梦中可以会见周公旦，安静时可以与孔子有相同的心意。老师可以嘲笑，这规矩出自哪家经典?</t>
   </si>
   <si>
-    <t>如鱼得水</t>
-  </si>
-  <si>
-    <t>如鱼得水出处《三国志·蜀书·诸葛亮传》于是与亮情好日密。关羽，张飞等不悦。先主妥之曰：“孤之有孔明，犹鱼之有水也。愿诸君勿复言。”羽、飞乃止。释义就如鱼儿得到了水一样，比喻得到了与自己情投意合的人或很适合自己的环境。故事诸葛亮，字孔明，襄阳人。刘备，字玄德，涿县人。东汉末年天下大乱，豪杰纷起，群雄争霸，刘备为实现自己统一天下的宏愿，多方搜罗人才，特意拜访隐居在隆中卧龙岗的诸葛亮，请他出山。他连去了两次都未能见着，第三次去，才见了面。刘备说明来意，畅谈了自己的宏图大志，诸葛亮推心置腹，提出了夺取荆州、益州，与西南少数民族和好，东联孙权，北伐曹操的战略方针，预言天下今后必将成为蜀、魏、吴三足鼎立的局面。刘备听后大喜，于是拜孔明为军师。孔明竭力地辅佐刘备，而刘备对孔明的信任和重用，却引起了关羽、张飞等将领的不悦。他们不时在刘备面前，表现出不满的神色，秉性耿直的张飞，更是满腹牢骚。刘备耐心地作了解释，他形象地把自己比做鱼，把孔明比做水，反复说明，孔明的才识与胆略，对自己完成夺取天下大业之重要。他说：“我刘备有了孔明，就好像鱼儿得到了水一样，希望大家不要再多说了。”</t>
-  </si>
-  <si>
     <t>一朝一夕</t>
   </si>
   <si>
@@ -544,12 +481,6 @@
     <t>春秋末期，周朝的统治分崩离析，各诸侯纷纷独立，割据一方。晋国是其中实力较强的一个诸侯国。晋国有赵襄子、魏桓子、韩康子、范氏、智伯、中行氏六个上卿。其中，智伯野心勃勃，千方百计地想扩展自己的势力范围。他先联合韩、赵、魏三家攻打中行氏，强占了中行氏的土地。过了几年，他又强迫韩康子割让了一块有一万户人家的封地。接着，他又威逼魏桓子。魏桓子迫不得已，也只好割地求和。获得这三位上卿的土地后，智伯得意忘形，以为天下所有人都害怕自己，便又要求赵襄子割让蔡和皋狼这两个地方。赵襄子坚决不肯答应。智伯恼羞成怒，胁迫韩康子和魏桓子一同讨伐赵襄子，双方在晋阳对峙了三年。赵襄子采纳谋士张孟谈的计策，说服韩康子和魏桓子与自己联合起来，乘夜出兵偷袭智伯，将他杀死。智伯因为十分贪心，永远得不到满足，终于落了个亡命的下场。</t>
   </si>
   <si>
-    <t>先声夺人</t>
-  </si>
-  <si>
-    <t>出处《左传·昭公二十一年》宋国的司马华费逐，有三个儿子：华驱、华多僚和华登。华多僚得国君宋元公的信任，就经常在元公面前说两个弟兄的坏活。华登被迫逃亡到国外后，他又在元公面前诬陷华驱，说他打算接纳逃亡的人。宋元公经不住华多僚的一再挑拨，便派人通知华费逐，叫他驱逐华驱。华费逐知道这件事是华多僚干的，恨不得杀了他，但又只得执行元公的命令，准备叫华驱去打猎，然后打发他走。华驱了解到这是华多僚干的坏事，本想杀了他，但又伯父亲伤心，决定逃亡。临行时，华驱打算与父亲告别。不料，在朝廷上遇见了华多僚。他一时性起，就与侍从杀死了华多僚，并召集逃亡的人一起反叛宋国。元公请齐国的乌枝鸣帮助守卫城池。这年冬天，逃亡在外的华登带领了吴国的一支军队，前来支持华驱攻打宋国。眼看华登的队伍快要来到，有位名叫淄的大夫对乌枝鸣说：“兵书《军志》上有这样的话：先向敌人进攻可以摧毁敌人的土气；后向敌人进攻要等待他们士气衰竭。何不乘华登的军队很疲劳和还没有安定而进攻?如果敌人已经来到而且稳住，他们的人就多了，到那时我们就后悔不及了。”乌枝鸣听从了濮的建议。结果，宋国和齐国的联军击败了吴军，俘虏了两个将领。但是，华登率领余部又击败了宋军。宋元公想逃，淄拦住他说：“我是小人，可以为君王战死，但不能护送你逃跑。请君王等待一下。”淄说完这话，一面巡行，一面向军士们喊道：“是国君的战士，就挥舞旗帜：”军士们按照他的话挥舞旗帜。宋元公也壮着胆下城巡视，对军士们说：“国家败亡，国君死去，这是大家的耻辱，不仅是我一个人的罪过，大家拼死打吧!”乌枝鸣命军士们用剑与叛军拼博。齐军和宋军一起攻打华登，华登支持不住，节节败退。淄冲到前面刺死华登，将他的头砍下、裹在战袍里，一边奔跑一边喊道：“我杀了华登了!我杀了华登了！”</t>
-  </si>
-  <si>
     <t>完璧归赵</t>
   </si>
   <si>
@@ -706,12 +637,6 @@
     <t>“覆水难收”这则成语的意思是泼出去的水，无法收回。表示事已定局，不可挽回。这个成语来源于宋.王桃《野客丛书》，太公取一壶水倾于地，令妻收入。乃语之曰：“若言离更合，覆水定难收。”商朝末年，有个足智多谋的人物，姓姜名尚，字子牙，人称姜太公。因先祖封于吕，又名吕尚。他辅佐周文王、周武王攻灭商朝，建立周朝，立了大功。后来封在齐，是春秋时齐国的始祖。姜太公曾在商朝当过官，因为不满纣王的残暴统治，弃官而走，隐居在陕西渭水河边一个比较偏僻的地方。为了取得周族的领袖姬昌（即周文王）的重用，他经常在小河边用不挂鱼饵的直钩，装模作样地钓鱼。姜太公整天钓鱼，家里的生计发生了问题，他的妻子马氏嫌他穷，没有出息，不愿再和他共同生活，要离开他。姜太公一再劝说她别这样做，并说有朝一日他定会得到富贵。但马氏认为他在说空话骗她，无论如何不相信。姜太公无可奈何，只好让她离去。后来，姜太公终于取得周文王的信任和重用，又帮助周武王联合各诸侯攻灭商朝，建立西周王朝。马氏见他又富贵又有地位，懊悔当初离开了他。便找到姜太公请求与他恢复夫妻关系。姜太公已看透了马氏的为人，不想和她恢复夫妻关系，便把一壶水倒在地上，叫马氏把水收起来。马氏赶紧趴在地上去取水，但只能收到一些泥浆。于是姜太公冷冷地对她说：“你已离我而去，就不能再合在一块儿。这好比倒在地上的水，难以再收回来了！”</t>
   </si>
   <si>
-    <t>一诺千金</t>
-  </si>
-  <si>
-    <t>出处:《史记·季布来布列传》秦朝末年，在楚地有一个叫季布的人，性情耿直，为人侠义好助。只要是他答应过的事情，无论有多大困难，都设法办到，受到大家的赞扬。　　楚汉相争时，季布是项羽的部下，曾几次献策，使刘邦的军队吃了败仗，刘邦当了皇帝后，想起这事，就气恨不已，下令通缉季布。　　这时敬慕季布为人，都在暗中帮助他。不久，季布经过化装后到山东一家姓朱的人家当佣工。朱家明知他是季布，仍收留了他，后来，朱家又到洛阳去找刘邦的老朋友汝阴候夏候婴说情。刘邦在夏候婴的劝说下撤消了对季布的通缉令，还封季布做了郎中，不久又改做河东太守。　　有一个季布的同乡人曹邱生，专爱结交有权势的官员，借以炫耀和抬高自己，季布一向看不起他。听说季布又做了大官，他就马上去见季布。　　季布听说曹邱生要来，就虎着脸，准备发落几句话，让他下不了台。谁知曹邱生一进厅堂，不管季布的脸色多么阴沉，话语多么难听，立即对着季布又是打躬，又是作揖，要与季布拉家常叙旧。并吹捧说：“我听到楚地到处流传着‘得黄金千两，不如得季布一诺’这样的话，您怎么能有这样好的名声传扬在梁、楚两地的呢？我们既是同乡，我又到处宣扬你的好名声，你为什么不愿见到我呢？”季布听了曹邱生的这番话，心里顿时高兴起来，留下他住几个月，作为贵客招待。临走，还送给他一笔厚礼。　　后来，曹邱生又继续替李布到处宣扬，季布的名声也就越来越大了。</t>
-  </si>
-  <si>
     <t>专心致志</t>
   </si>
   <si>
@@ -724,12 +649,6 @@
     <t>有一年夏天，县令应郴请主簿（办理文书事务的官员）杜宣来饮酒。酒席设在厅堂里，北墙上悬挂着一张红色的弓。由于光线折射，酒杯中映入了弓的影子。杜宣看了，以为是一条蛇在酒杯中蠕动，顿时冷汗涔涔。但县令是他的上司，又是特地请他来饮酒的，不敢不饮，所以硬着头皮喝了几口。仆人再斟时，他借故推却，起身告辞走了。回到家里，杜宣越来越疑心刚才饮下的是有蛇的酒，又感到随酒入口的蛇在肚中蠕动，觉得胸腹部疼痛异常，难以忍受，吃饭、喝水都非常困难。  家里人赶紧请大夫来诊治。但他服了许多药，病情还是不见好转。  过了几天，应郴有事到杜宣家中，问他怎么会闹病的，杜宣便讲了那天饮酒时酒杯中有蛇的事。应郴安慰他几句，就回家了。他坐在厅堂里反复回忆和思考，弄不明白杜宣酒杯里怎么会有蛇的。  突然，北墙上的那张红色的弓引起了他的注意。他立即坐在那天杜宣坐的位置上，取来一杯酒，也放在原来的位置上。结果发现，酒杯中有弓的影子，不细细观看，确实像是一条蛇在蠕动。应郴马上命人用马车把杜宣接来，让他坐在原位上，叫他仔细观看酒杯里的影子，并说：“你说的杯中的蛇，不过是墙上那张弓的倒影罢了，没有其他什么怪东西。现在你可以放心了！”,杜宣弄清原委后，疑虑立即消失，病也很快痊愈了。</t>
   </si>
   <si>
-    <t>老生常谈</t>
-  </si>
-  <si>
-    <t>出处《三国志·魏志·管辂传》此者生常谭(谈)。释义老书生常讲的话，没有新的意思。比喻听惯听厌的话。故事三国时候，有个名叫管辂的人，从小勤奋好学、才思敏捷，光其喜爱天文。十五岁时，已熟读《周易》，通晓占卜术，渐渐有了小名气。日子一久，传到吏部尚书何晏、侍中尚书邓飓耳里。这天，正好是农历十二月二十八日，这两个大官吃饱喝足后，闹着无聊，便派人把管辂召来替他们占卜。管辂早就听说这两人是曹操侄孙曹爽的心腹，倚仗权势，胡作非为，名声很不好。他考虑了一会几，想趁这个机会好好教训他们一顿，灭灭他们的威风。何虽一见管辂，就大声嚷道：”听说你的占卜很灵验，快替我算一卦，看我能不能再有机会升官发财。另外，这几天晚上我还梦见苍蝇总是叮在鼻子上，这是什么预兆?”管辂想了一想，说：“从前周公忠厚正直，辅助周成王建国立业，国泰民安；现在你的职位比周公还高，可感恩你的人很少，惧伯你的人却很多，这恐怕不是好预兆。你的梦按照卜术来测，也是个凶相阿!”管辂接着又说：“要想逢凶化吉，消灾避难，只有多效仿周公等大圣贤们，发善心，行善事。”邓飓一旁听了，很不以为然，连连摇头说：“这都是些老生常谈，没什么意思。”何宴脸上铁青，一语不发。管辂见了，哈哈一笑：“虽说是老生常谈的话，却不能加以轻视啊！”不久，新年到了，传来消息说何宴、邓辂与曹爽一起因谋反而遭诛杀。管辂知道后，连声说：“老生常谈的话，他们却置之不理，所以难怪有如此下场啊！”</t>
-  </si>
-  <si>
     <t>固若金汤</t>
   </si>
   <si>
@@ -778,9 +697,6 @@
     <t>西汉武帝的时候，有个名叫义纵的人。他姐姐义殉是个医生。她因医好了皇太后的病，皇太后很宠爱她，义纵也因此得到汉武帝的任用。他先在上党郡一个县中任县令，后又升为长安县令。他在任职期间，能够依法办事，不讲情面，也不怕得罪有权有势的人，当地的治安有了很大的改变。汉武帝认为他很有才干，就调任他为河内郡都尉，后又升为南阳太守。  当时，南阳城里居住着一个管理关税的都尉名叫宁成，这人很残暴，利用手中的权力横行霸道，百姓们都很害怕他，甚至连进关、出关的官员都不敢得罪他。人们都说，让宁成做官，好比是把一群羊交给狼管。宁成听说义纵要来南阳任太守，有些不安。等义纵上任那天，带领全家老小恭恭敬敬地站在路边迎接义纵。义纵知道宁成这样做的目的，对他不理不睬。一上任，义纵就派人调查宁成的家族，凡是查到有罪的，就统统杀掉，最后，宁成也被判了罪。这一来，当地有名的富豪孔氏、暴氏因为也有劣迹，吓得逃离了南阳。  后来，汉武帝又调义纵任定襄（在今内蒙古）太守，那时，这个地区的治安很混乱。义纵一到定襄，就将监狱中二百多个重罪轻判的犯人重新判处死刑，同时将二百多个私自来监狱探望这些犯人的家属抓了起来，说他们想要为犯人开脱罪行，也一起判处死刑。  那天，一下子就杀了四百多人。尽管那天天气不冷，然而，住在这个地区的人们听到这个消息后都吓得不寒而栗。  义纵执法严峻，但也存在肆意残杀的问题，司马迁《史记》把义纵归入酷吏一类。</t>
   </si>
   <si>
-    <t>兴高采烈</t>
-  </si>
-  <si>
     <t>百步穿杨</t>
   </si>
   <si>
@@ -793,12 +709,6 @@
     <t>王勃字子安，是唐初著名的文学家。他少年时便很有才学，6岁时就能写文章，而且写得又快又好；14岁时，已能即席赋诗。王勃与杨炯、卢照邻、骆宾王以文辞齐名，合称“初唐四杰”。他15岁应举及第，曾经担任参军（将军府的重要幕僚），后因罪免官。公元676年，王勃去交趾（在今越南境内）探望做县令的父亲。途经洪都（今江西南昌）时，都督阎伯屿因重修的滕王阁落成，定于九月九日重阳节在那里宴请文人雅士和宾客朋友。他的女婿吴子章很有文才，阎伯屿叫他事先写好一篇序文，以便到时当众炫耀。王勃是当时有名文士，也在被请之列。宴会上，阎伯屿故作姿态，请来宾为滕王阁作序。大家事先都无准备，所以都托辞不作。请到王勃时，他却并不推辞，当场挥毫疾书，一气呵成，写就了著名的《滕王阁序》，各宾客看了一致称好。阎伯屿读后也深为钦佩，认为这篇序文比自己女婿写的要高明得多，也就不再让吴子章出场著文了。《滕王阁序》构思精绝，文气通顺畅达，而又纵横交错。序文在铺叙盛会胜景的同时，也流露出王勃壮志难酬的感慨：“关山难越，谁悲失路之人？萍水相逢，尽是他乡之客。”这几句的意思是：关山重重，难以攀越，有谁为失路的人悲哀？今天与会的人像萍浮水面，偶然相遇，都是他乡之客。表达了他生不逢时，慨叹自已命运不佳的心情。不久，王勃离开洪都，前往交趾。不幸的是在渡海时遇难，死时才26岁。</t>
   </si>
   <si>
-    <t>汗流浃背</t>
-  </si>
-  <si>
-    <t>出处《汉书·杨敞传》敝惊惧，不知所言。汗出浃背徒唯唯而已。释义“浃”，湿透，出汗多，湿透脊梁。形容满身大汗。也形容极度惶恐或惭愧过度。故事汉大将军霍光，是汉武帝的托孤重臣，辅佐八岁即位的汉昭帝执政，威势很重。霍光身边有个叫杨敞的人，行事谨小慎微，颇受霍光赏识，升至丞相职位，封为安平候。其实，杨敞为人懦弱无能，胆小怕事，根本不是当丞相的材料。公元前74年，年仅廿一岁的汉昭帝驾崩于未央宫，霍光与众臣商议，选了汉武帝的孙子昌邑王刘贺作继承人。谁知刘贺继位后，经常宴饮歌舞，寻欢作乐。霍光听说后，忧心忡忡，与车骑将军张安世、大司马田延年秘密商议，打算废掉刘贺，另立贤君。计议商定后，霍光派田延年告诉杨敞、以便共同行事。杨敞一听，顿时吓得汗流浃背，惊恐万分，只是含含糊糊，不置可否。杨敞的妻子，是太史公司马迁的女儿，颇有胆识。她见丈夫犹豫不决的样子，暗暗着急，趁田延年更衣走开时，上前劝丈夫说；“国家大事，岂能犹豫不决。大将军已有成议，你也应当速战速决，否则必然太难临头。”杨敞在房里来回酸步，却拿不定注意。正巧此时田延年回来，司马夫人回避不及，索性大大方方地与田延年相见，告知田延年，她丈夫愿意听从大将军的吩咐。田延年听了后高兴地告辞走了。田延年回报霍光，霍光十分满意，马上安排杨敞领众臣上表，奏请皇太后。第二天，杨敞与群臣遏见皇太后，陈述昌邑王不堪继承王位的原因。太后立即下诏废去刘贺，另立汉武帝的曾孙刘询为君，史称汉宣帝。</t>
-  </si>
-  <si>
     <t>多多益善</t>
   </si>
   <si>
@@ -817,36 +727,12 @@
     <t>张可久是元朝庆元人。一生仕途不得志。他善写散曲，曲多歌咏山水，风格清新秀丽。例如他这样描写鉴湖（在浙江绍兴，也叫镜湖、贺家湖等）的风光（译文）：,每听到画鼓阵阵、紫萧悠扬，我就会想起家乡鉴湖的春天来：四五月间，镜湖上的龙舟比赛你争我夺，游人们则悠闲的喝着酒划着船，好像整个越王城的人都穿着华丽的衣服出来了。在风风雨雨的清明节，柳絮满天，到处是泪迹未干的伤心人。在莺莺燕燕的端午节，看热闹的人身上佩戴的花坠都压断了肠英草（雁肠英，一种野菜）。站在越王山山顶的望海亭里，哪里还能看见越王山的郁郁葱葱啊！</t>
   </si>
   <si>
-    <t>后生可畏</t>
-  </si>
-  <si>
-    <t>出处《论语·子罕》后生可畏，焉知来者之不如也!释义赞扬少年聪明努力，有光明的前途。故事孔子在游历的时候，碰见三个小孩，有两个正在玩耍，另一个小孩却站在旁边。孔子觉得奇怪，就问站着的小孩为什么不和大家一起玩。小孩很认真地回答：“激烈的打闹能害人的性命，拉拉扯扯的玩耍也会伤人的身体；再退一步说，撕破了衣服，也没有什么好处。所以我不愿和他们玩。这有什么可奇怪的呢?”过了一会几，小孩用泥土堆成一座城堡，自己坐在里面，好久不出来，也不给准备动身的孔子让路。孔子忍不住又问：‘你坐在里面，为什么不避让车子?”“我只听说车子要绕城走，没有听说过城堡还要避车子的!”孩子说。孔子非常惊讶，觉得这么小的孩子，竟如此会说话，实在是了不起，于是赞叹他说：“你这么小的年纪，懂得的事理真不少呀：”小孩却回答说：“我听人说，鱼生下来，三天就会游泳，兔生下来，三天就能在地里跑，马生下来，三天就可跟着母马行走，这些都是自然的事，有什么大小可言呢?”孔子不由感叹他说：“好啊，我现在才知道少年人实在了不起呀!”</t>
-  </si>
-  <si>
-    <t>羽毛未丰</t>
-  </si>
-  <si>
-    <t>出处《战国策。秦策—》秦王曰：“寡人闻之，毛羽不丰满者，不可以高飞。”战国时洛阳人苏秦，年青时曾师从智者鬼谷子学习辩术谋略。学习结束后，周游列国，希望有朝一日，他的治国谋略能获得君王们的接纳。秦是西方的大国。凭借有利的地理环境，发展农业，国力逐渐强盛。但在当时，实国尚不能与其它大国抗衡。苏寿秦这次远游秦国，是要说动秦王，与函谷关以东的—些国家联合，同其他的国家联盟作较量。但是秦惠王并没有听取他的建议，而是说：“我们秦国现在就像一只羽毛还没长全的小鸟，要想展翅高飞那是不行的。先生你迢迢千里来到这里开导我，我很感激。至于称霸争帝的事，我希望在以后的适当时机，再聆听你的高见。”在秦国耗费了所有资财，上书十多次，但仍未说动秦王。苏泰无奈，只得灰溜溜地离开秦国回家。这时的苏秦，也就犹如羽毛未丰的小鸟，无法振翅飞于那动荡的政治舞台。</t>
-  </si>
-  <si>
     <t>家喻户晓</t>
   </si>
   <si>
     <t>汉朝人编的一部《烈女传》里记载了这样一件事：有个名叫梁姑的女子，一天，她的房屋不慎失火。她哥哥的一个小孩和她自己的两个小孩，都在屋里。她冒火冲进屋去，本来想先抢救她哥哥的小孩，可是抢出一看，却是自己的一个孩子。这时，火势已猛，没法再进去了。她急得双脚直跳，捶胸大哭道：“这怎么得了呀！我不是要背上自私的恶名了吗？我姓梁的岂能‘户告人晓’，让人骂呢？我还有什么脸面见人啊！……”说着，不顾一切，投身火海，最终被火烧死了。  这里的“户告人晓”是“家家互相传告，人人都知道”的意思。后来又有人写作“家至户晓”是“家家都传到，户户都知道”的意思。逐渐地，就变成今天的“家喻户晓”了。</t>
   </si>
   <si>
-    <t>千载难逢</t>
-  </si>
-  <si>
-    <t>千载难逢出处:《韩昌黎全集·潮洲村史谢上表》当此之际，所谓千载一时不可逢之嘉会。释义:“载”，午。“逢”遇。千年也难得碰到一次。形客机会极其难得。故事:唐代著名的文学家韩愈，小时候就成为孤儿由他的嫂子抚养。他刻苦自学。年轻时代就博览群书，在学问方面打下了坚实的基础。35岁到京城，担任国子监博士，后来又被提升为刑部侍郎。 当时佛教盛行，连唐宪宗也很祟尚佛教。他听说有所寺院里安放着一块佛祖释迎牟尼的遗骨，便准备兴师动众，把它迎进宫里礼拜。韩愈对此很反感，写了一篇《谏迎佛骨表》加以反对。其中提到，佛教传人中国后，帝王在位时间都不长；想拜佛求保佑的，结局必然是悲惨的。 唐宪宗看了这表。十分恼怒，认为韩愈不只是故意与自己作对，而且用历史来影射自己活不长。为此，要将韩愈处死，亏得宰相为他说情，才改为贬职，到潮州任刺史。 唐朝中期，中央统治权力日益削弱。宪宗执政后，改革了前朝的一些弊政，因此中央政权的统治有所加强。被贬到潮州的韩愈，针对这一情况，再次给宪宗上了《潮州刺史谢上表》，极力为宪宗歌功颂德，以便重新得到信任，回到朝廷工作。 在这道表中，韩愈恭维宪宗是扭转乾坤的中兴之主，并且建议宪宗到泰山去“封禅”。封禅，是一种祭祀天地的大典。古人认为五岳中泰山最高，登到山顶筑坛祭天称“封”，在山甫梁父山上辟基祭地叫“掸”。历史上有名的秦始皇和汉武帝。曾举行过这种大典。韩愈这样建议，是把宪宗当作有杰出贡献的帝王。 韩愈还在这道表中隐约地表示，希望宪宗也让他参加封禅的盛会，并说如果他不能参加这个千年难逢的盛会，将会引为终身的遗憾。 后来，宪宗把他调回京都，让他担任吏部侍郎。</t>
-  </si>
-  <si>
-    <t>马首是瞻</t>
-  </si>
-  <si>
-    <t>出处:《左传·襄公十四年》荀偃令曰：“鸡鸣而驾，基井夷灶，唯余马首是瞻。释义:“瞻”是看的意思。这则成语的本意是，作战是士兵看着主将的马头决定行动的方向。现在用来比喻服从指挥或者乐于追随。故事：战国时，晋淖公联合了十二个诸侯国攻伐秦国，指挥联军的是晋国的大将荀偃。苟偃原以为十二国联军攻秦。秦军一定会惊慌失措。不料景公已经得知联军心不齐，士气不振，所以毫不胆怯，并不想求和。苟偃没有办法，只得准备打仗，他向全军将领发布命令说：“明天早晨。鸡一叫就开始驾马套车出发。各军都要填平水井，拆掉炉灶。作战的时候，全军将土都要看我的马头来定行动的方向。我奔向那里，大家就跟着奔向那里。”想不到苟偃的下军将领认为，苟偃这佯指令，大专横了，反感他说：“晋国从未下过这样的命令，为什么要听他的？好，他马头向西，我偏要向东。”将领的副手说：“他是我们的头，我听他的。”于是也率领自己的队伍朝东而去：这样一来，全军顿时混乱起来。苟偃失去了下军，仰天叹道：“既然下的命令不能执行，就不会有取胜的希望，一交战肯定让秦军得到好处。”他只好下令将全军撤回去。</t>
-  </si>
-  <si>
     <t>出奇制胜</t>
   </si>
   <si>
@@ -907,12 +793,6 @@
     <t>故事王商，字子威，继承父亲的封号为乐吕侯，是汉成帝的丞相，他为人耿直，作风正派。  汉成帝三年的秋天，京城长安城中忽然有传言说要发大水了，长安城就要被水吞没了。刹时间，整个长安城的老百姓都惊慌起来大家扶老携幼，争相逃命。  消息传到宫中，汉成帝立即召集文武百官到宫中议事，商量对策。成帝的舅父、大将军王凤也惊慌失措，劝成帝、太后赶快躲到船上去准备撤离。大臣们也纷纷附和王凤的意见。只有孙丞相王商坚决反对，他认为大水不可能突然而来，一定是谣传，在这个关键时刻更不能轻易撤离，这样只会使人心更加慌乱。成帝采纳了王商的意见，过了一会，城里也没见大水来，谣言不攻自破，城里的秩序也慢慢恢复了。调查下来，确实是传言失实。成帝对王商能力排众议很赞赏。王凤却认为是王商使他下不了台，因此心怀不满。  王凤有个亲戚叫杨肜，是琅那太守，因为没有把他管辖的地方管理好，王商要办他的罪，王凤为此亲自跑到王商面前，替杨肜说情，为他开脱。王商坚持原则，免去了杨肜的官职，王凤更加怀恨在心，千方百计想要打击报复。于是他勾结了同伙，诬陷王商。汉成帝最后听信了谗言，罢免了王商的丞相职务。  但是，是非自有公论。《汉书》的作者班固在撰写王商的传记时对王商的评价是：为人诚实公正，不屈不侥。这样的评论是很客观公正的。</t>
   </si>
   <si>
-    <t>有备无患</t>
-  </si>
-  <si>
-    <t>出处《传·襄公十一年》春秋时，晋悼公当了国君以后，想重振晋国的威名，像他的先祖晋文公一样，称霸诸侯。这时，郑国是一个小国，一会儿和晋结盟，一会儿又归顺楚国。晋悼公很生气，公元562年，他集合了宋、鲁、卫、刘等11国的部队出兵伐郑。邻简公兵败投降，给晋国送去大批礼物，计有兵车一百辆，乐师数名，一批名贵乐器和十六个能歌善舞的女子。晋悼公很高兴，把这些礼物的一半赏赐给魏绛，说：“魏绛，是你劝我跟戎、狄和好，又安定了中原各国；八年来，我们九次召集各国诸侯会盟。现在我们和各国的关系，就象一曲动听的乐曲一样和谐。郑国送来这么多礼物，让我和你同享吧!”魏绛说：“能和狄、戎和好相处，这是我们国家的福气，大王做了中原诸侯的盟主，这是凭您的才能，我出的力是微不足道的。不过，我希望大王在安享快乐的时候，能够多考虑一些国家的未来。《尚书》里说：“在安定的时候，要想到未来可能会发生的危险；您想到了，就会有所准备，有所准备，就不会发生祸患。’我愿意用这些话来提醒大王!”</t>
-  </si>
-  <si>
     <t>管中窥豹</t>
   </si>
   <si>
@@ -1093,12 +973,6 @@
     <t>东汉末年，朝政腐败，军阀割据，互相攻伐。割据凉州军阀马腾，被曹操杀掉。马腾的儿子马超为报父仇，与西凉太守韩遂联合起来，出动数十万大军进攻曹操。双方在渭口一带对阵。第二天，两军出营布成阵势。马超挺枪纵马，与曹操的猛将许褚大战。两人战了一百多回合，不分胜负。因为战马疲累不支，于是各回军中，换了匹马，又出阵前战了一百多回合，胜负仍然不分。许褚杀得性起，拍马回阵，卸下盔甲，露现突出的筋肉，赤着膊，提刀上马，来与马超决战。双方官兵大为震惊。两人又斗了三十余回合，许褚奋力举刀向马超砍去，马超闪过，挥枪向许褚心窝刺来。许褚扔下手中刀，用力夹住马超的枪，于是两人在马身上夺抢，许褚力大，咔嚓一声，扭断枪杆，两人各拿半截，在马上乱打。接着两军混战，曹军损伤大半，退回寨中坚守不出。马超退回渭口，对韩遂说：“我看在恶战当中，再也没有比许褚不要命的了。他真是个‘虎痴'啊！”</t>
   </si>
   <si>
-    <t>门庭若市</t>
-  </si>
-  <si>
-    <t>出处:《战国策·齐策》齐王乃下令：“群臣吏民，能而刺寡人之过者，受上赏；上书谏寡人者，受中赏；能谤讥子市朝，闯寡人之开者，受下赏。”令初下，群臣进豫，门庭若市。释义:门口和庭院里热闹得集市一样。形容来的人多。故事:战国时，齐国的相国邹忌，身材高大容貌端庄。他为劝说齐威王放开言路，鼓励群臣进谏，就给齐威王讲了这样一个故事：一天早晨，他穿好朝服．戴好帽子，对着镜子端详一番，然后问他的妻子说：“我和城北徐公比较起来，谁长得英俊。“你英俊、极了，徐公怎么比得上你呢?”妻子说。徐公是齐国出名的美男子，邹忌听了妻子的活，并不太敢相信自己真的比徐公英俊，于是他又去问他的爱妾，爱妾回答说：“徐公怎能比得上你呢?”第二天，邹忌家中来了一位客人，邹忌又问了客人，客人说：“徐公哪有你这样俊美呢?”过了几天，正巧徐公到邹忌家来拜访，邹忌便乘机仔细地打量徐公，拿他和自己比较。结果，他发现自己实在没有徐公漂亮。于是，他对齐威王说：“我本来不如徐公漂亮，但妻、妾、客人都说我比他漂亮，这是因为妻偏护我，妾畏惧我，客人有事求我，所以他们都恭维我，不说真话。而我们齐国地方这么大，宫中上下，谁不偏护你，满朝文武，谁不畏惧你，全国百姓谁不希望得到你的关怀，看来恭维你的人一定更多，你一定被蒙蔽得非常严重了！”邹忌又劝谏说：“现在齐国地方千里，城池众多，大王接触的人也比我多得多，所受的蒙蔽也一定更多。大王如能开诚布公地征求意见，一定对国家有益。”齐威王听了，觉得很有道理，立刻下令说“无论是谁，能当面指出我过失的，给上赏；上奏章规劝我的，给中赏；在朝廷或街市中议论我的过失，并传到我耳中的，给下赏！”命令一下，群臣前去进谏的，一时川流不息，朝廷门口每天像市场一样热闹。</t>
-  </si>
-  <si>
     <t>萧规曹随</t>
   </si>
   <si>
@@ -1189,12 +1063,6 @@
     <t>宋代黄州有位诗人潘大临，勤奋好学，家境贫寒，曾写过不少好诗。  有一年秋天，他的好友来信问他：“最近有新诗吗？”潘大临回信说：“秋天的景物，件件都可以写出好的诗句来。昨天我正靠在床铺上闭目养神，听著窗外吹打树林的风雨声，我起身在墙上写道：‘满城风雨近重阳’。这时,催交租税的人忽然闯了进来，使我的诗兴一扫而光，无法再继续写下去了。现在我只有这一句寄给你。”</t>
   </si>
   <si>
-    <t>以身试法</t>
-  </si>
-  <si>
-    <t>出处《汉书，王尊传》西汉时，高阳出了一位廉洁奉公的官员，叫王尊。王尊从小死去父亲，由他的伯父抚养长大。伯父家里比较贫穷，王尊每天要赶羊群到野外去放牧。这孩子最爱读书，放牧时总要带些书阅读。渐渐地，他对书上提到的那些秉公执法的官吏十分崇敬，希望自己将来也成为这样的人物。一天他向伯父央求，为他在郡的监狱里谋一份差使。这时王尊才十三岁，伯父听后惊讶他说：“你还是个孩子啊，又不懂刑律，怎么能到监狱去做事呢?”玉尊说：“孩儿已从书中见到过很多。以后再跟狱长多学学，不就行了吗?”伯父经不住王尊一再央求，便备了礼托人找狱长说情。狱长便把王尊当听差在身旁使唤。王尊当了几年听差，经常接触到刑狱方面的事务，长进很快。一次他随狱长去太守府办事，被太守看中，便把他留在府中做文书方面的事。又过了几年，王尊辞去职务，攻读孺家经典，之后再被任用。由于他执法严正，逐步提升，当上了县令，后来又升为安定郡大守。当时，安定郡官场非常混乱，一些官员利用权势作威作福，鱼肉百姓。王尊一到那里，立即整顿吏治，并晓示属县所有官吏忠于职守，以身作则，为下属作出榜样。法律无情，不要用自己的身体去尝试一下法律。郡里有个属官心狠手辣，搜刮大量民脂民膏，民愤极大，告示贴出后不见改悔，于是王尊把他捉拿归案。这贪官入狱后，没几天就一病身亡。接着，王尊又惩办了一批罪行严重而又没有悔改的豪强。这样一来，安定郡开始太平起来。</t>
-  </si>
-  <si>
     <t>明目张胆</t>
   </si>
   <si>
@@ -1249,12 +1117,6 @@
     <t>如火如荼春秋时代末期，吴国国王夫差连续征服了越国、鲁国和齐国，雄心勃勃，又继续向西北进军，打算一鼓作气征服晋国。可正在这个时候，越王勾践抄了吴王的后路。他带领军队一直打到吴国的国都姑苏（苏州），又派人马占据淮河，把吴王的退路切断了。这消息给吴王夫差当头泼了一盆冷水，他非常震惊，立即召集文臣武将商量对策。大家说，现在退回去等于两关打了败仗，还会两头挨打；如果能打败晋国，就等于在诸候国中当定了霸主，再回去收拾越王勾践也不算晚。大主意已经拿定，当务之急是尽快征服晋国。考虑再三，决定出奇制胜。一天傍晚，吴王下达了命令。全军将士吃得饱饱的，马也喂足了草料。从全军中挑出三万精兵强将。每一万人摆成一个方阵，共摆三个方阵。每个方阵横竖都是一百人。每一行排头的都是军官司。每十行，也就是一千人，由一个大夫负责。每项一个方阵由一名将军率领。中间的方阵白盔白甲，白衣服，白旗帜，白弓箭，由吴王自己掌握，称为中军；左边的方阵，红盔红甲、红衣服、红简直就像深不可测；右边的方阵则一水儿黑色。半夜出发，黎明时分到达离晋军仅有一里路的地方。天色刚刚显出亮色，吴军鼓声大作，欢呼之声震天动工地。晋军从梦中醒来，一看吴军那三个方阵和声威气势，简直都惊呆了：那白色方阵，“望之如荼”——像开满白花的茅草地；那红色方阵，“望之如火”——如像熊熊燃烧的火焰；而那黑色的方阵，简直就象深不可测的大海。故事出自《国语·吴语》。成语“如火如荼”，形容某种人群或事物阵容之大，气势之盛。</t>
   </si>
   <si>
-    <t>口若悬河</t>
-  </si>
-  <si>
-    <t>出处：《晋书·郭象传》王衍云：“听象语，如悬河泻水，注而不竭。”释义：“悬河”，瀑布。讲起话来像瀑布一样滔滔不绝。形容能言善辩，也比喻十分健谈。故事：晋朝时，有一位大学问家，名叫郭象，字子玄。　　他在年轻的时候，已经是一个很有才学的人。尤其是他对于日常生活中所接触的一些现象，都能留心观察，然后再冷静地去思考其中的道理。因此，他的知识十分渊博，对于事情也常常能有独到的见解。后来，他又潜心研究老子和庄子的学说，并且对他们的学说有深刻的理解。　　过了些年，朝廷一再派人来请他。他实在推辞不掉，只得答应了，到朝中做了黄门待郎。到了京城，由于他的知识很丰富，所以无论对什么事情都能说得头头是道，再加上他的口才很好，又非常喜欢发表自己的见解，因此每当人们听他谈论时，都觉得津津有味。　　当时有一位太尉王衍，十分欣赏郭象的口才，他常常在别人面前赞扬郭象说：“听郭象说话，就好象一条倒悬起来的河流，滔滔不绝地往下灌注，永远没有枯竭的时候。”郭象的辩才，由此可知。　　而后人就以“口若悬河”来形容人善于说话，一旦说起话来就橡倒悬的河水、滔滔不绝，永远没有停止的时候。</t>
-  </si>
-  <si>
     <t>重蹈覆辙</t>
   </si>
   <si>
@@ -1285,12 +1147,6 @@
     <t>汉哀帝刘欣是汉成帝的养子，二十岁即位做了皇帝，定年号为建平。自做皇帝以后，哀帝经常生病。建平二年六月，哀帝的母亲丁太后得病去世。担任“黄门待诏”的顾问官夏贺良向汉哀帝上奏说：,“汉朝的历法已经衰落，应当重新接受天命。成帝当时没有顺应天命，所以他没有亲生儿子。现在，皇上您生病的时间已很长了，天下又多次发生各种变异，这些都是上天的警告。皇上只有马上改变年号，才可以延年益寿，生养皇子，平息灾祸。如果明白了这个道理而不照着做，各种灾祸都会发生，人民就要遭受灾难。”哀帝听了夏贺良的一番话，也盼自己身体健康，就在建平二年六月甲子日，即丁太后死后的第四天，发布诏书，大赦天下，改建平三年为太初元年，改帝号为“陈圣刘太平皇帝”，把计时的漏上的刻度从一百度改为一百二十度。  改变年号以后，哀帝还是照样生病。夏贺良等人想趁机干预朝政，遭到朝中大臣的反对。哀帝也因夏贺良的话没有应验，派人对他们的所作所为作了调查，知道他们实际上是一伙骗子，于是在八月间又下诏书，说道：“黄门待诏夏贺良等建议改变年号和帝号，说增加漏的刻度可以使国家永远安定，我误听了他们的话，希望给天下带来安定，但是并没有应验。夏贺良等所说的所做的，都违经背古，不合时宜。六月甲子日的诏书，除了大赦一项之外，全部废除。”,这次改元不到两个月就结束了。夏贺良等人因妖言惑众，被处以死刑。</t>
   </si>
   <si>
-    <t>天真烂漫</t>
-  </si>
-  <si>
-    <t>出处:元·夏文彦《图绘宝鉴·五·郑思肖》工画墨兰，尝自画一卷，长大会，高可五寸许。天真烂漫，超出物表。释义:“天真”指单纯；“烂漫”自然的意思，这则成语常用来指人心地单纯，坦率自然。也用来比喻青少年或儿童心地单纯善良。故事:南宋末年，有位姓郑的画家曾以太学生的资格，参加博学词科考试。后来北方蒙古贵族南侵，他向朝廷上书主张抵抗，但未被采纳。南宋灭亡后，他改名为“思肖”。原来，宋朝是赵姓打的天下，“肖”是赵的偏旁。画家表示自己永远思念南宋，并隐居在苏州的一所寺庙里。郑思肖在自己的寓所里挂了一块大脸，匾上是他亲笔写的“本穴世界”四个字：原来，“本”由“大”、“十”两字组成，把其中的“十”字放在“穴”字中间，就成为“宋”加上“大”就是”大宋”。说明自己仍然生活在“大宋”的疆域内。有一次．他画了二卷高五寸，长一丈多的墨兰。画上的墨兰，自然全无土根的。他还在画上题上八个字：“纯是君子，绝无小人。”大家欣赏了这幅画后，赞不绝口，一致夸它画得纯真自然，生气勃勃。</t>
-  </si>
-  <si>
     <t>饥寒交迫</t>
   </si>
   <si>
@@ -1351,12 +1207,6 @@
     <t>贾谊，洛阳人，是汉文帝时的一个著名文人。自小聪慧好学，极有才华。被文帝召为博士，后又担任过太中大夫的官职。但因为被人嫉忌，后谪为长沙王太傅（老师）。政治上的不得志，使他以屈原自喻，写下了著名的《吊屈原赋》等文章。后来，汉文帝把他召回宫中，要他担任梁王刘揖的太傅。梁王是汉文帝最宠爱的儿子，文帝指望他将来能继承皇位，所以要他多读些书，希望贾谊好好教导他。贾议就此发了一通议论，他说：“辅导皇子，教他读书固然重要，但更重要的，是教他怎样做一个正直的人。假使像秦朝末年赵高教导秦二世胡亥那样，传授给胡亥的是严刑酷狱，所学的不是杀头割鼻子，就是满门抄斩。所以，胡亥一当上皇帝，就乱杀人，看待杀人，就好像看待割茅草一样，不当一回事。这难道只是胡亥的本性生来就坏吗？他所以这样，是教导他的人没有引导他走上正道，这才是根本原因所在。” 后来，贾谊到梁国上任担任太傅，悉心辅导梁王。可是梁怀王不慎骑马摔死，贾谊自伤没有尽到太博的责任，因此终日郁郁不乐，常常哭泣，一年多后，就死了，死时才33岁。  可是，贾谊这段精彩的论述就此留传了下来。“草菅人命”作为一句成语，也被人们用来形容反动统治阶级杀人的凶残狠毒。</t>
   </si>
   <si>
-    <t>小心翼翼</t>
-  </si>
-  <si>
-    <t>出处：《诗经·大雅·大明》由于父亲的严格要求，贾黄中十五岁就考中进士，当了校书郎。贾黄中为官清廉正直。他在任宣州大守时，有一年闹灾荒，百姓饿死不少。贾黄中就用自家的米做饭，救活了几千人。他在金陵任职的时候，发现府库内藏有几十匣金银宝贝，价值连城，马上清理上报朝廷。宋大宗十分高兴，夸奖他说，若不是他廉洁奉公，这些前朝的宝贝一定会丢失；此外还特地召见了贾黄中的母亲，赞扬她教子有功,可以比作孟子的母亲。但是，贾黄中办事过分认真、慎重，遇到大事往往不能当机立断。后来他被派往外地任职，在向太宗辞行时，太宗告诫他说：“做事恭谦，小心谨慎，不论是做君的还是做臣的都应该这样，但是如果做得太过分了，就失去了大臣的身份。”贾黄中死时，家中很穷，皇帝特地赐钱三十万，又给他老母亲白银三百两，以表彰他为官廉洁无私，他母亲教子有方。</t>
-  </si>
-  <si>
     <t>孤注一掷</t>
   </si>
   <si>
@@ -1369,24 +1219,12 @@
     <t>西汉时，太尉周亚夫有个属官叫赵禹。此人文笔犀利，廉洁正直。汉武帝对他极为赏识，便任命他为太中大夫，参与制订国家法律。赵禹等人根据汉武帝的旨意，补充和修订了原有的法律条文，以约束办事的官吏。当时许多官员都请赵禹作客赴宴，希望他把法律条文修订得有回旋的余地，可赵禹从不作答回请。后来，赵禹等人决定制定“知罪不举发”和“官吏犯罪上下连坐”等律法，以限制朝廷官员。公卿们知道消息后纷纷去劝说赵禹，要他不要把法律定得太苛刻。谁知赵禹见了携带重礼而来的公卿们时，只是和他们天南地北地乱聊，根本不理会他们的暗示。公卿们见实在说不下去，只好起身告辞。在他们离开前，赵禹又把礼物一一退还给他们。人们这才知道赵禹是个真正廉洁正直的人。有人问赵禹，他是否考虑周围人对他的看法。他回答说：“我这样拒绝好友或宾客的请托，就是为了自己能独立地决定、处理事情，按自己的意志办事，而不受别人的干扰。”</t>
   </si>
   <si>
-    <t>伤风败俗</t>
-  </si>
-  <si>
-    <t>伤风败俗出处唐·韩愈《论佛骨表》伤风败俗，传笑四方，非细事也。释义“伤”损伤。“败”败坏，败坏社会风气。常用于谴责不正当的行为。故事唐宪宗时，佛教盛行，连宪宗也笃信佛教。有一次，宪宗把传说是佛祖释迦牟尼的一块遗骨迎进宫内供奉。韩愈反对宪宗这一做法，特地写了《论佛骨表》，呈交给宪宗进行谏阻。在《论佛骨表》中，韩愈说：佛教是从外国传来的，中国古时候根本没有。尧、舜、禹等古代圣人不知道有什么佛教，但他们把国家治理得很好；他们在位的时间长，寿命也很长。佛教是从东汉明帝时期传人中国的，明帝在位只有18年，宋、齐、梁、陈和北魏后的各个朝代，对佛教无比信奉，但那些朝代的命都很短。就拿梁武帝来说吧，他祭相不用牲畜，自己不吃荤，还三次出家当和尚，结果还是被叛军包围，活活饿死。他本想求佛得到保佑，但却悲惨死去。现在，陛下把佛骨迎到宫里来供奉，使王公大臣们奔走施舍，浪费大量的财富。有的百姓愚昧无知，甚至发狂地烧的自己的身体，以表示自己对佛的虔诚。这败坏风俗的事，会被人们当作笑话四处传播，可不是一件小事啊!依我看来，应当把那块佛骨扔进水里或者投入火中才是！</t>
-  </si>
-  <si>
     <t>捕风捉影</t>
   </si>
   <si>
     <t>谷永，字子云，长安（在今陕西西安市）人，汉成帝时担任过光禄大夫、大司农等职。  汉成帝二十岁做皇帝，到四十多岁还没有孩子。他听信方士的话，热衷于祭祀鬼神。许多向汉成帝上书谈论祭祀鬼神或谈论仙道的人，都轻而易举地得到高官厚禄。成帝听信他们的话，在长安郊外的上林苑大搞祭祀，祈求上天赐福，花了很大的费用，但并没有什么效验。  谷永向汉成帝上书说：“我听说对于明了天地本性的人，不可能用神怪去迷惑他；懂得世上万物之理的人，不可能受行为不正的人蒙蔽。现在有些人大谈神仙鬼怪，宣扬祭祀的方法，还说什么世上有仙人，服不死的药，寿高得像南山一样。听他们的说话，满耳都是美好的景象，好像马上就能遇见神仙一样；可是，你要寻找它，却虚无缥缈，好像要缚住风、捉住影子一样不可能得到。所以古代贤明的君王不听这些话，圣人绝对不说这种话。”,谷永又举例说：周代史官苌弘想要用祭祀鬼神的办法帮助周灵王，让天下诸侯来朝会，可是周王室更加衰败，诸侯反叛的更多；楚怀王隆重祭祀鬼神，求神灵保佑打退秦国军队，结果仗打败了，土地被秦削割，自己做了俘虏；秦始皇统一天下后，派徐福率童男童女下海求仙采药，结果一去不回，遭到天下人的怨恨。最后，他又说道：“从古到今，帝王们凭着尊贵的地位、众多的财物，寻遍天下去求神灵、仙人，经过了多少岁月，却没有丝毫应验。希望您不要再让那些行为不正的人干预朝廷的事。”,汉成帝认为谷水说得很有道理，便听从了他的意见。</t>
   </si>
   <si>
-    <t>有名无实</t>
-  </si>
-  <si>
-    <t>出处《国语，晋语八》一天，晋国的大夫叔向去拜访老朋友韩宣子。韩宣子是当时晋国的六卿之一，职位很高。但他见了叔向，不住地唉声叹气，说自己很穷。不料叔向听他这样说，便站起身拱手向他祝贺。韩宣子不解地问道：“我是有卿的名，而没有卿的实际，无法跟大夫们相比。我正为此犯愁。你为什么要祝贺我呢?”叔向正色道：“我就是因为你贫穷才来道贺的呀!穷，不一定是坏事；你只要回忆一下弈武子三代的遭遇，就可以知道了!“叔向知道韩宣子很清楚奕武子三代的不同遭遇，所以特地提起了这件事。最后他又说：“我看你像弈武子一样贫困，就想到您已经有了他那样的德行，所以才表示祝贺。不然，我只会担心，哪会再向您表示祝贺呢?”韩宣子听了叔向的话，顿时愁云消散，向叔向行礼说：“多谢您对我的指教，要不我连自己将走向灭亡也不知道呢。”</t>
-  </si>
-  <si>
     <t>因祸得福</t>
   </si>
   <si>
@@ -1555,12 +1393,6 @@
     <t>东汉名将马援的小女儿马氏，由于父母早亡，年纪很小时就操办家中的事情，把家务料理得井然有序，亲朋们都称赞她是个能干的人。  十三岁那年，马氏被选进宫内。她先是侍候汉光武帝的皇后，很受宠爱。光武帝去世后，太子刘庄即位，就是汉明帝，马氏被封为贵人。由于她一直没有生育，便收养了贾氏的一个儿子，取名为刘火旦（da）。公元60年，由于皇太后对她非常宠爱，她被立为明帝的皇后。  马氏当了皇后，生活还是非常俭朴。她常穿粗布衣服，裙子也不镶边。一些嫔妃朝见她时，还以为她穿了特别好的料子制成的衣服。走到近前，才知道是极普通的衣料，从此对她更尊敬了。  马皇后知书识理，时常认真地阅读《春秋》、《楚辞》等著作。有一次，明帝故意把大臣的奏章给她看，并问她应如何处理，她看后当场提出中肯的意见。但她并不因此而干预朝政，此后再也不主动去谈论朝廷的事。  明帝死后，刘煌即位，这就是汉章帝。马皇后被尊为皇太后。不久，章帝根据一些大臣的建议，打算对皇太后的弟兄封爵。马太后遵照已去世的光武帝有关后妃家族不得封侯的规定，明确地反对这样做，因此这件事没有办。第二年夏天，发生了大旱灾。一些大臣又上奏说，今年所以大旱，是因为去年不封外戚的缘故。他们再次要求分封马氏舅父。马太后还是不同意，并且为此专门发了诏书，诏书上说：“凡是提出要对外戚封爵的人，都是想献媚于我，都是要从中取得好处。天大旱跟封爵有什么关系？要记住前朝的教训，宠贵外戚会招来倾覆的大祸。先帝不让外戚担任重要的职务，防备的就是这个。今后，怎能再让马氏走老路呢？”诏书接着说：“马家的舅父，个个都很富贵。我身为太后，还是食不求甘，穿着简朴，左右宫妃也尽量俭朴。我这样做的目的，是为下边做个样子，让外亲见了好反省自己。可是，他们不反躬自责，反而笑话我太俭省。前几天我路过娘家住地濯（zhuo）龙园的门前，见从外面到舅舅家拜候、请安的，车子像流水那样不停地驶去，马匹往来不绝，好像一条游龙，招摇得很。他们家的佣人，穿得整整齐齐，衣眼绿色，领和袖雪白，看看我们的车上，比他们差远了。我当时竭力控制自己，没有责备他们。他们只知道自己享乐，根本不为国家忧愁，我怎么能同意给他们加官进爵呢？”</t>
   </si>
   <si>
-    <t>一日千里</t>
-  </si>
-  <si>
-    <t>出处:《史记·刺客列传》战国时期，燕国太子丹在赵国作人质时，与同在赵国、尚未做秦王的赢政相处良好。后来，赢政回国做了秦王，太子丹也在秦国做人质，赢政不但没有顾念旧情、加以特别照顾，反而处处冷待、刁难他，太子丹见此状况，便找了个机会，逃回了燕国。回国后，太子丹一直耿耿于杯，想报复赢政。但由于国家小，力量薄弱，难以实现自己复仇愿望。不久，秦国出兵攻打齐、楚、韩、魏、赵等国家，渐渐逼近了燕国。燕国国君害怕极了，太子丹也忧愁万分：就向他的老师鞠武求教能够阻挡秦国侵吞的好办法，鞠武说：“我有一个好朋友，名叫田光，他很机智，有谋略，你可跟商讨一下。”田光请来了，太子丹非常恭敬地招待了他，并说“希望先生能替我们想个办法，抵挡秦国的侵吞。”田光听了，一言不发，拉着太子丹的手走到门外，指着拴在大树旁的马说：“这是一匹良种马。在壮年时、—天可以跑千里以上，等到它衰老时，劣马都可以跑在它的前面。您说这是为什么呢?”太子丹说：“那是因为它精力不行了。”“对呀！—现在您听说的关于我的情况，都还是我壮年的事，您不知道我已年老了，精力不行了。”田光停了停又接着说：“当然；虽然有关国家的大事我已无能为力，但我愿向您推荐一个人，我的好朋友荆坷，他能够承担这个重任。后来，太子丹结交了荆轲，派去行刺秦王，但最后行刺以失败告终。</t>
-  </si>
-  <si>
     <t>功亏一篑</t>
   </si>
   <si>
@@ -1579,12 +1411,6 @@
     <t>隋炀帝杨广时，著作郎（官名）王劭常用一些荒诞言论取悦皇帝。他曾谎报说：有人抓了一只乌龟，它的腹部有“天下杨兴”四个字，预示着杨家江山兴旺长久。当皇后死时，王劭又说：皇后原是菩萨转生，她现在只是回到天上去……他这些“骇人视听”的奇谈怪论虽然遭到有识之士的鄙弃，却得到杨广的欢心。这样，王劭在著作郎的位置上坐了将近二十年。“骇人视听”现写为“骇人听闻”。</t>
   </si>
   <si>
-    <t>天经地义</t>
-  </si>
-  <si>
-    <t>出处《左传·昭公二十五年)夫札，天之经也，地之义也，民之行也。释义“经”指常规，原则“义”指正理，准则。天经地义比喻正确的，不可改变的因而也不容置疑的道理。故事公元前520年周景王姬贵死后，按习俗由他正夫人所生的世子姬敬继位。但是，景王生前曾与大夫宾孟商讨过，打算立非正夫人所生的长子姬朝为世子。这样，姬朝也有资格继位。于是，周王室发生了激烈的王位之争。在这种情况下，晋顷公召集各诸侯国的代表在黑壤盟，商讨如何使用王室安宁。参加商讨的有晋国的赵鞅，郑国的淤吉、宋国的乐大心等。会上．晋国的赵鞅向郑国的游吉请教什么叫“礼”。游吉回答说：“我国的子产大夫在世时曾经说过，礼就是天之经，地之义，也就是老天规定的原则，大地施行的正理!它是百姓行动的依据，不能改变，也不容怀疑。”赵鞅对游吉的回答很满意，表示—定要牢记这个道理。其他诸侯国的代表听了，也大都表示有理。接着，赵鞅提出各诸候国应全力支持敬王，为他提供兵卒、粮草，并且帮助他把王室迁回王城。后来，晋国的大夫率领各诸侯国的军队，帮助敬王恢复王位，结束了周王室的王位之争。</t>
-  </si>
-  <si>
     <t>空前绝后</t>
   </si>
   <si>
@@ -1729,12 +1555,6 @@
     <t>东汉末年，河南太守李膺名声很大，轻易不接见客人。有个10岁的孩子，名叫孔融，他偏要去见见李膺。  太守府门庭森严，孔融对守门人说：“我是李大人的亲戚。”守门人陪送他去见李膺，可李膺不认识他，问：“你是我的什么亲戚？”孔融回答：“我的祖先孔子和你的祖先老子很有交情。我和你不是世交吗？”李膺的宾客们见他才思敏捷，很善于讲话，都感到惊奇。只有大夫陈韪不以为然，说：“小时了了，大未必佳。”孔融立刻说：“想君小时，必当了了。”窘得陈韪半天说不出话来。  孔融长大后中，做过北海相等官，是历史名人。</t>
   </si>
   <si>
-    <t>分道扬镳</t>
-  </si>
-  <si>
-    <t>出处:《北史·魏诸宗室·河间公齐传》高祖曰：“洛阳，我之丰、沛，自应分道扬镳。自今以后，可分路而行。”释义:“扬镳”，举鞭驱马前进。分路前进，比喻各奔前程，各干各的事。故事:在南北朝的时候，北魏有一个名叫元齐的人，他很有才能，屡建功勋。皇帝非常敬重他，封他为河间公。元齐有一个儿子叫元志。他聪慧过人，饱读诗书，是一个有才华但又很骄傲的年轻人。孝文帝很赏识他，任命他为洛阳令。不久以后，孝文帝采取了御史中尉李彪的建议，从山西平城搬迁到洛阳建都。这样一来，洛阳令成了“京兆尹”。在洛阳，元志仗着自己的才能，对朝廷中某些学问不高的达官贵族，往往表示轻视。有一次，元志出外游玩，正巧李彪的马车从对面飞快地驶来。照理，元志官职比李彪小，应该给李彪让路，但他一向看不起李彪，偏不让路。李彪见他这样目中无人，当众责问元志：“我是御史中尉，官职比你大多了，你为什么不给我让路?”元志并不买李彪的帐，说：“我是洛阳的地方官，你在我眼中，不过是洛阳的一个住户，哪里有地方官给住户让路的道理呢？”他们两个互不相让，争吵起来了。于是他们来到孝文帝那里评理。李彪说，他是“御史中尉”，洛阳的一个地方官怎敢同他对抗，居然不肯让道。元志说，他是国都所在地的长官，住在洛阳的人都编他主管的户籍里，他怎么同普通的地方官一样向一个御史中尉让道？孝文帝听他们的争论，觉得各有各的道理，不能训斥他们中的任何一个，便笑着说：“洛阳是我的京城。我听了，感到你们各有各的道理。我认为你们可以分开走，各走各的，不就行吗?”</t>
-  </si>
-  <si>
     <t>事半功倍</t>
   </si>
   <si>
@@ -1765,18 +1585,6 @@
     <t>甄氏是中山郡无极县人。其祖父甄邯曾任汉太保，世袭颁布俸禄二千石。他的父亲甄逸，曾任上蔡县（今河南上蔡县）令。甄氏三岁时，父亲病故。甄氏天资聪明，九岁时经常到书房外偷听哥哥们读书，常用诸兄笔砚写字，在此执教的老师，为甄氏的好学精神所感动，便破例收下了这个女学生。长大后，甄氏才学见识名冠当时，尤以诗作见长；而其貌之美，可以倾国。当地有一算命先生，颇有些名气，据说能算出一个人的未来吉凶。甄夫人请算命先生为女儿看相算命，算命先生一见甄氏姑娘，大吃一惊说：“此女将来贵不可言！”,当时，出身于四世三公大官僚家庭的袁绍，担任冀州（今河北省临漳县西南邺城）牧，他的第二个儿子袁熙尚未成亲。袁熙听说甄氏才学出众，貌若天仙，而且是官宦人家出身，门当户对，请求父亲派人去提亲，这样，甄氏便嫁到了袁家。后来，袁绍在与各地方势力的混战中取胜，他的三个儿子也各领一州。但好景不长，公元200年袁绍在官渡之战中被曹操打败，不久吐血而亡。他的次子袁熙不久也被公孙康杀死。  此时，袁绍的夫人刘氏和甄氏一起住在邺城（汉献帝被曹操迎接迁都至许昌，任命袁绍为太尉、封邺侯，故家眷居邺）。曹操的长子曹丕破邺城后进入袁府，见到甄氏即被她的美貌所惊呆，他当即要她理一下披散的头发，见甄氏脸上有泪痕，并递过去手帕让她擦脸。临走时，留下一队卫兵保护袁府，不许外人闯入。不久，曹丕禀明曹操，派人把甄氏接到自己府里，与她喜结良缘。  自此曹丕对甄氏宠爱无比，百依百顺，曹操死后，曹丕代汉称帝，建立了魏国，甄氏被立皇后。当时甄氏已年过四十岁，容颜衰败。为了能使曹丕长久宠幸自己，她每天早晨都要花很长时间梳洗打扮。  据说在她宫室前的庭院中，有一条长得非常美丽的绿色的蛇，它嘴里时常含一颗红珠。每当甄皇后晨起梳妆打扮的时候，它就在她面前签署成奇巧的形状。甄皇后后来注意到，这条蛇每天筋同的形状，从来不重复。于是，她就模仿它的形状梳头。  时间久了，甄皇后的头发虽然是用人工梳成的，但它的精致巧妙可称得上“巧夺天工”。当然，她每天头发的形状也是变化不同的，后宫的人都称它为“灵蛇髻”。曹丕见了后，觉得她仍然非常年轻漂亮，还是对她十分宠爱。  但是，随着年华的消逝，即使再精致巧妙的梳妆，也无法改变甄皇后失宠的命运。年轻美貌的郭皇后终于替代了她的地位。而她由于对此不满，惹怒了曹丕，最后被下诏赐死。曹丕死后，甄皇后所生长子明帝即位，追谥其母为文昭皇后，另建寝庙，曰“文昭庙”，世世享祀，与祖庙相同。此成语源于甄皇后为永葆青春秀美，精心梳理“灵蛇髻”，以取悦皇上的故事。</t>
   </si>
   <si>
-    <t>同甘共苦</t>
-  </si>
-  <si>
-    <t>出处《战国策·燕策》燕王吊死问生，与百姓同其甘苦二十八年。释义“甘”甜。一同尝甜的，也一同吃苦的。比喻有福一起享，有困难一起承担。故事战国时，燕国太子姬平继承了王位，史称燕昭王。怎么治理，才能富民强国，燕昭王真感到束手无策。一天，他听说郭隗善出点子，很有计谋。于是赶紧派人去把郭魄请来，对他说：“你能否替我找到一个有本领的人，帮我强国复仇?”郭魄说：“只要你广泛选拔有本领的人，并且要亲自去访问他，那么，天下有本领的人就都会投奔到燕国来。”“那么我去访问哪一个才好呢?”郭隗回答说：“先重用我这个本领平平的人吧!天下本领高强的人看到我这样的人都被您重用，那么，他们肯定会不顾路途遥远，前来投奔您的。”燕昭王立刻尊郭隗为老师，并替他造了一幢华丽住宅。消息一传开，乐毅、邹衍、剧辛等有才能的人，纷纷从魏、齐、赵等国来到燕国，为燕昭王效力。燕昭王很高兴，都委以重任，开关备至；无论谁家有婚丧娶等事，他都亲自过问。就这样，他与百姓同事安乐，共度苦难二十八年，终于把燕国治理得国富民强，受到举国上下的一致拥戴</t>
-  </si>
-  <si>
-    <t>网开三面</t>
-  </si>
-  <si>
-    <t>商汤王是商朝的开国帝王，他姓子，名履，是商族先祖契的第十四代子孙。契曾帮助禹治水有功，帝舜即位后，任命契为司徒，令他施行五伦（孝敬父母、友爱兄弟姐妹、夫妇循礼、对朋友忠诚宽容、同道相谋（君仁臣忠））,来教导老百姓做人的道理，更封契于商，赐姓子，这就是商部落的始祖。从大禹到桀，夏朝一共持续了四百多年的时间。夏桀是一个极端残暴、放荡的人。他的暴政激起了各部落人民的极度不满。而商部落的领袖汤是一个贤明的首领，他关心百姓疾苦，勤政爱民，很受拥戴。  一天，汤外出处理政务，在路上看见一人个人正在捕鸟。那人支开一张像笼子般的大网，将四面都拦住，准备捕获来自各方向的禽鸟。此时，那猎人正向天祷告，期盼能捕获更多的猎物，嘴里还喃喃地说：“凡是天空落下的，从地面洞穴里钻出来的，自四面八方跑过来的，无论是飞得高的还是低的，向东走的还是向西行的，都统统进到我的网里来。”,他祷告的声音刚落，汤就走过去对那个人说：“哎呀，你这种方法太残忍了！这不是把所有的禽兽都打光了吗？不能干出这种赶尽杀绝的事情来啊！”说着，汤亲手收拢起三面网，只给猎人留下一张网。然后，像做祈祷那样，他轻轻的低声说道：“哦，飞禽哟，走兽哟，想往左的就往左，想向右的就向右；愿高飞的尽情飞，乐钻洞的块入穴；随意而去，投奔自由。如果没有办法，无可遁逃，就进入这张网吧！这也是自投罗网，无可奈何！”,四方诸侯听说了这件事情，都非常感动，无不由衷地赞颂汤的盛德，高兴地说：“汤王真是仁德到了极点了，对禽兽都爱护有加，何况是对人呢？真是圣君啊！”于是纷纷来归顺商汤，前后总共有四十六国之多。汤王统治的范围越来越大，国力也越来越强盛。而夏桀这个贪酒好色的君主，却拿人命当儿戏，又时常掠夺劳力，导致农民不能按时耕种庄稼，最后搞得天怒人怨，老百姓恨桀恨到了极点，都希望他早早灭亡。于是汤顺天命，应人心，讨伐夏桀，诸侯归服。汤取代夏桀，平定海内，建立了商朝。商汤还任用伊尹为宰相，辅助国政，使国内政治清明，人民安居乐业，天下大治。</t>
-  </si>
-  <si>
     <t>井底之蛙</t>
   </si>
   <si>
@@ -1867,12 +1675,6 @@
     <t>秦朝未年，为了反抗暴政，各地人民纷纷起义。其中又以陈胜和吴广率领的百姓起义声势浩大。当时有个叫殷通的会稽郡守也想趁机推翻秦朝，所以就请来当时在吴国避难的项梁和项羽叔侄俩人共商大事。  项梁和项羽在当地广结了许多知名人士和有才智的人，加上两人本身熟悉兵法，因此很受当地百姓的敬仰。项梁对殷通说：“现在各地义军纷纷起义，所以现在正是消灭秦国的最好机会，当然先起义发动的人就可以得到先机，我们应该早点起义才是。”项梁看出殷通性格胆怯，难成大事，于是就叫项羽把他杀死，并收服了他的部下。另一方面，他又不断征集人马，壮大军队，并且打出灭秦的旗号。而项羽就是后来历史上赫赫有名的“西楚霸王”。</t>
   </si>
   <si>
-    <t>如释重负</t>
-  </si>
-  <si>
-    <t>如释重负出处《毅梁传·昭公二十九年》昭公出奔，民如释重负。释义比喻人在解除某种负担后轻松愉快。故事公元542年，鲁襄公病死，公子调继位，史称鲁昭公。当时，鲁国的实际权力，掌握在季孙宿、叔孙豹和孟孙三个卿手里，其中以季孙宿的权力最大，昭公不过是个傀儡。昭公这个国君也不争气，只知游乐，不理国政。生母去世后，他在丧葬期间面无愁容，谈笑自若，还外出打猎取乐。这样，就使他更在国内失去民心。大夫子；家羁见昭公越来越不像样，非常担心，几次当面向昭公进谏，希望他巩固王室的力量，免得被外人夺了政权。但是，昭公不听他的劝告，照样我行我素。日子久了，昭公终于觉察到，季孙宿等三卿在不断壮大势力，对自己已经构成了严重的威胁。于是，他在大臣中暗暗物色反对三卿的大臣，寻找机会打击三卿。不久，季孙宿死去，他的孙子意如继续执政。大夫公若、邱孙、藏孙与季孙意如有矛盾，打算除掉季孙氏，便约昭公的长子公为密谈这件事。公为当然赞成。公为回宫和两个弟弟商量后，认为父亲昭公肯定怨恨季孙氏专权，因此劝说昭公除掉季孙氏。昭公听说郧孙、藏孙等大夫与季孙氏有矛盾，心里很高兴，就秘密把他们两人召进宫内，要他们一起来诛灭季孙氏。接着，又把子家属召来，告诉了他这一密谋。不料，子家羁反对说：“这可千万使不得！如果这是进谗者利用大王去侥幸行事，万一事情失败，大王就要留下无法洗刷的罪名。”昭公见他坚决反对，喝令他离去。但子家羁表示，现在他已经知道了这件事的内幕，就不能高官了，否则泄露出去，就不能摆脱责任。于是，他就在宫中住了下来。这年的秋天，三卿之一的叔孙豹因故离开都城，把府里的事情托给家臣翩戾掌管。昭公觉得这是个好机会，没有人会去支援季孙氏，便使孙、藏孙率军包围了季孙氏的府第。季孙意如来不及调集军队反击，又不能得到叔孙豹的救援，只好固守府第。他向昭公请求，愿意辞去卿的职务回封地去，或者流亡到国外去。子羁勇建议昭公答应季孙意如的请求，但是，后孙坚持非把他杀掉不可。昭公觉得后孙的意见对，就听从他的。再说叔孙豹的家臣翩戾得知季孙氏被围的消息，和部下商量后认为，如果季孙氏被消灭，那末接下来会轮到叔孙氏，所以马上调集军队救援季孙氏。昭公的军队没有什么战斗力，见叔孙氏的军队冲过来，马上四散逃走。三卿中还有一家孟孙，见叔孙氏家已经出兵救援季孙氏，也马上派兵前往。路上，正好遇到逃退过来的后孙，便把他抓住杀死。昭公见三卿的军队已经联合起来，知道大势己去，只好和藏孙一起出奔齐国避难。由于昭公早就失去了民众，所以百姓对他的出奔并不表示同情；倒反觉得减轻了他们身上的重担。</t>
-  </si>
-  <si>
     <t>不知所云</t>
   </si>
   <si>
@@ -1885,12 +1687,6 @@
     <t>解释:对于别人给自己施与恩惠表示感激，并想办法报答。图：谋求。春秋时候，吴国的大将军伍子胥带领吴国的士兵要去攻打郑国。郑国的国君郑定公说：「谁能夠让伍子胥把士兵带回去，不来攻打我们，我一定重重地奖赏他。」可惜没有一个人想到好办法，到了第四天早上，有个年轻的打渔郎跑来找郑定公说：「我有办法让伍子胥不来攻打郑国。」郑定公一听，马上问打渔郎：「你需要多少士兵和车子？」打渔郎摇摇头说：「我不用士兵和车子，也不用带食物，我只要用我这根划船的桨，就可以叫好几万的吴国士兵回去吴国。」是什么样的船桨那么厉害呀？打渔郎把船桨夹在胳肢窝下面，跑去吴国的兵营找伍子胥。他一边唱着歌，一边敲打著船桨：「芦中人，芦中人；渡过江，谁的恩？宝剑上，七星文；还给你，带在身。你今天，得意了，可记得，渔丈人？」伍子胥看到打渔郎手上的船桨，马上问他：「年轻人，你是谁呀？」打渔郎回答说：「你没看到我手里拿的船桨吗？我爸爸就是靠这根船桨过日子，他还用这根船桨救了你呀。」伍子胥一听：「我想起来了！以前我逃难的时候，有一个打渔的先生救过我，我一直想报答他呢！原来你是他的儿子，你怎么会来这里呢？」打渔郎说：「还不是因为你们吴国要来攻打我们郑国，我们这些打渔的人通通被叫来这里。我们的国君郑定公说：『只要谁能夠请伍将军退兵，不来攻打郑国，我就重赏谁！』希望伍将军看在我死去的爸爸曾经救过您，不要来攻打郑国，也让我回去能得到一些奖赏。」伍子胥带着感激的语气说：「因为你爸爸救了我，我才能夠活着当上大将军。我怎么会忘记他的恩惠呢？我一定会帮你这个忙的！」伍子胥一说完，马上把吴国的士兵通通带回去。打渔郎高兴地把这个好消息告诉郑定公。一下子，全郑国的人都把打渔郎当成了大救星，叫他「打渔的大夫」，郑定公还送给他一百里的土地呢！伍子胥为了报答打渔郎的爸爸帮助过他，他不但不攻打郑国还让打渔郎得到奖赏，这就叫做“感恩图报”。</t>
   </si>
   <si>
-    <t>一丝不苟</t>
-  </si>
-  <si>
-    <t>出处:《儒林外史》明朝时候，皇上下令禁止宰杀耕牛，就是信奉回教的人也不例外。一天，乡绅张静斋与举人范进相约去拜访高要县知县汤奉。汤知县置酒招待他们。席间有位老者给汤知县送来了他与其他几个信回教的人拼凑起来的五十斤牛肉。汤知县一向贪赃受贿，而且他也是信奉回教的人，但是上面有禁令，一时也不知该不该收下这份礼。于是问张静斋：“你是做过官的，有关禁止宰杀耕牛的事正该与你商量。刚才有几个信奉回教的人为了开禁，送来五十斤牛肉，请求我对他们稍微宽松些。你看是接受还是不接受?”张静斋摇头道：“这可千万使不得。你我都是做官的人，心中应当只有皇上，哪里顾得上信奉同一教的人？想起洪武年问的刘老先生(指刘伯温)；洪武私访到他家，正巧江南张王(指张士诚)送来一个菜坛子。、当面打开一看，是一坛金子。皇上大为恼火，第二天就把刘老先生贬为青田县知县，后来又用毒药把他毒死了。汤知县见张静斋说得头头是道，不由得不信，于是急忙请教该如何处置为好。张静斋说道：“世叔可在这件事大作文章。把那位老者抓起来，打他几十板子，再用一面大枷枷了，把送来的牛肉堆在大枷上面，并且在旁边出一张告示，说明他们大胆妄为，知法犯法。如上司知道你办事这样一丝不苟，那么你升官发财就指日可待了。”汤知县听了，连连点头：“十分有理。”便照此办理了。</t>
-  </si>
-  <si>
     <t>危如累卵</t>
   </si>
   <si>
@@ -1975,12 +1771,6 @@
     <t>春秋时，晋国发兵去救援被楚攻打的郑国，可是晚到了一步，郑国已投降了楚军。这时晋军主帅荀林父主张退兵，可副帅反对，最后由于意见不一致，晋军被楚军打得大败。  晋景公得到这一消息，很是气愤。晋军将领回国后，晋景公立即叫人把败军将领带上殿来，大声斥责，追究责任。那些将领见国君大发雷霆，跪在一旁，不敢吱声，过了一会，荀林父想到自己是主帅，这次大败应负有责任，就跪前一步说：“末将罪该万死，现请求一死。”,景公盛怒之下，拂袖示意卫兵来捆绑荀林父。这时，大夫士贞子上前阻止，不慌不忙地对景公说：“三十多年前，先君文公在对楚的城濮之战中大获全胜，晋国举国欢腾，但文公面无喜色，左右感到很奇怪，就问文公：‘既然击败了强敌，为何反而愁闷？’文公说：‘这次战斗，由于我们采取了正确的战略原则，击破了楚军的左、右翼，中军主帅子玉就完全陷入被动，无法挽回败局，只得收兵。但楚军虽败，主帅子玉尚在，哪里可以松口气啊！困兽犹斗，更何况子玉是一国的宰相呢？我们又有什么可高兴的，他是要来报仇的！’直到后来楚王杀了子玉，文公才喜形于色。楚王杀子玉，是帮了我们晋国的忙。如果说楚国被先王打败是一次失败，那么，杀掉子玉是再次失败。现在您要杀掉林荀父......”,景公听了士贞子的话，恍然大悟，笑着说：“大夫别说了，我懂了，我杀了荀林父，岂不是帮了楚国的忙？这样，我们不是也将一败再败了吗？”,于是，景公当场就赦免了荀林父等将帅。</t>
   </si>
   <si>
-    <t>妄自尊大</t>
-  </si>
-  <si>
-    <t>出处《后汉书·马援传》(马援)，囚辞归，谓嚣曰：“子阳井底蛙耳，而妄自尊大，不如专意东方。”释义形容人狂妄地夸大自己，以为自己了不起，轻视别人。故事是马援，字文渊，茂陵人。东汉初年，刘秀做了皇帝，称光武帝。当时，政权虽已建立，但天下尚未统一，各路豪强凭借自己的军队，各霸一方，各自为政。在各路豪强中，公孙述最为强大，他在成都称帝。为此，在陇西一带称霸的隗嚣，派了马援去公孙述处探探情况，以商讨如何能长期地割据一方。马援在隗嚣手下，是个很受器重的将才，他接受使命，信心百倍地踏上征途。因为公孙述是他的同乡，早年又很熟悉，所以这次去，他心想一定能受到热情的欢迎和款待，可以好好地叙日说故。然而事出意外，公孙述听说马援要见他，竟摆出了皇帝的架势，自己高踞殿上，派出许多侍卫站在阶前，要马援以见帝王之礼去见他，并且没说上几句话就退朝回宫，派人把马援送回宾馆去了。接着，公孙述又以皇帝的名义，给马援封官，赐马援官眼。对此，马援当然很不愉快，他对手下的人说：“现在天下还在各豪强手中争夺，还不知道谁胜谁败公孙述如此大讲排场，自以为强大，有才能的人能留在此与他共同建立功业吗?”马援回到隗嚣处，对隗嚣说；“公孙述就好比井底的青眺，看不到天下的广大，自以为了不起，妄自尊大，我们不如到东方(洛阳)的光武帝那里去寻找出路。”后来，马援投靠了光武帝刘秀，在光武帝手下当了一位大将，竭尽全力，帮助光武帝统一天下。最后，公孙述被刘秀打败。</t>
-  </si>
-  <si>
     <t>乘风破浪</t>
   </si>
   <si>
@@ -2077,12 +1867,6 @@
     <t>西汉末年，刘秀起兵打败了王莽的新朝，又镇压和收编了河北、山东一带的农民起义军，在洛阳建立东汉王朝，自己做了皇帝（即光武帝）。  在东汉建立之初，国内尚未统一，许多地方势力占据某些州郡和东汉抗争。有的虽然表示臣服东汉，实际上都仍旧保留地盘，并不甘服。而部分比较强大的农民军也相当活跃。刘秀花了5年多时间，才算打下了一个基本统一的局面，只剩甘肃的隗嚣和四川的公孙述两大军阀。这时，隗嚣表面上已向刘秀称臣，并且把儿子送到洛阳任官，表示归顺。公孙述自称蜀王，拥兵数十万，盘踞四川山区。因交通困难，刘秀对这两个人，暂不想征战，企图把连续苦战多年的部队好好整顿和休养一下再说。据《后汉书?隗嚣传》载，当时刘秀曾对将领们说：“且当置此两子于度外耳！”（姑且把这两人丢在一边，暂不考虑吧！）后来，刘秀终于发兵，先消灭了隗嚣，接着又把公孙述的独立王国攻破。  上述《后汉书》所载刘秀那句话，就是成语“置之度外”的来历。</t>
   </si>
   <si>
-    <t>水深火热</t>
-  </si>
-  <si>
-    <t>出处《孟子·梁急王下》如水益深，如火益热。释义好像掉进深水和烈火之中一样难受。比喻人民生活极端痛苦故事战国时，燕王哙改革国政，把君位让给相国子之，将军市被和公子平不服，起兵攻打子之，爆发内战。燕国大乱，齐国乘虚而入，齐宣王派大将匡章率兵十万攻燕。燕国百姓对内战不满，不愿出力抵抗齐军，出现“士卒不战，城门不闭”的局面，有些地方的燕国百姓反而给齐军送饭递水表示欢迎。匡章只用了五十天工夫，就攻下燕国国都。齐军攻占燕国后，并无撤回之意。匡章又不管束军队，士卒欺凌百姓，燕人纷纷起来反抗。这时，齐宣王向正在齐国游说的孟子请教，问道：“有人劝我不要吞并燕国，有人劝我吞并它，到底该怎么办?”孟子回答说：“如果吞并燕国，当地百姓反而很高兴，那就吞并它。古人有此先例，周武王便是。”“如果吞并燕国，当地百姓并不高兴，”孟子又说，“那就不要吞并它。古人也有先例，周文王便是。”孟子举了这两个例子后指出：“当初齐军攻入燕国，燕人送饭递水表示欢迎，那是因为燕国百姓想摆脱苦日子；而今如果齐国进而吞并燕国，给燕人带来亡国的灾难，使他们陷入水深火热之中，那他们必然会转而盼望别国来解救了!</t>
-  </si>
-  <si>
     <t>一窍不通</t>
   </si>
   <si>
@@ -2125,12 +1909,6 @@
     <t>从前有个人看书的时候，总会把书中文章大声念出来，可是他从来不动脑筋想一想书中的道理，还自以为看了很多书，懂得许多道理。有一天，他参加朋友的聚会，大家边吃边聊，其中有一位客人感慨地说：“这世上很少有两全其美的事，就拿吃水果来说，梨对牙齿很好，但是吃了伤胃；枣子能健胃，可惜吃多了会伤牙齿。”大家都觉得很有道理。 这个人为了表现自己的聪明，就接下去说：“这很简单嘛！吃梨子时不要吃进果肉，就不会伤胃；吃枣子时用吞的，就不会伤牙啦！”这时桌上正好有一盘枣子，他便拿起枣子打算直接吞下去。大家怕他噎到，连忙劝他说：“千万别吞，卡在喉咙多危险呀！”</t>
   </si>
   <si>
-    <t>天罗地网</t>
-  </si>
-  <si>
-    <t>出处元曲选·李寿卿《伍员吹萧》若不是华建来说就里，白破了这厮谎，险些儿被赚入天罗地网。释义“罗”是捕鸟的网；天空、地面遍张罗网。比喻包围得非常严密，无处可逃。故事元代的李寿卿创作了一个杂剧，名叫《伍员吹萧》，说的是春秋时吴国大夫伍员一段曲折经历的故事。故事内容是这样的：楚平王身旁有个很会拍马的人，名叫费无极。一次，他奉命到秦国去给太子华建迎接新娘，见新娘非常美丽，便怂恿平王把她留作自己的妃子。昏庸好色的平王居然照办。这件事传开后，成为一大丑闻。太子华建的老师伍奢，是个刚正不阿的大臣。费无极生伯他今后帮助太子惩罚自己，便怂恿平王诱杀了他及其长子。这样做还不够，费无极又怂恿平王把太子华建送到城文去把守边疆。后来仍不放心，又派人去杀害他。公子华建得到风声，连夜逃跑。他知道伍奢的次子伍员在樊城镇守，便赶到那里，告诉了他父兄被杀的情况，并说费无极已派他的儿子费得雄即将赶到樊城来骗你回去，然后杀掉。伍员听到这些消息，大骂费无极心狠，平王无道，决定采取适当措施对付赶来的费得雄。。过了几天，费得雄果然来到樊城。见了伍员后，他谎称平王因伍员屡立战功，要重加赏赐，请伍员立刻启程回朝，接受赏赐。伍员故意问道：“我已半年未曾回朝，不知我家父兄等是否安康?”费得雄装模作样他说：“你们伍家好生兴旺，有哪家比得上!”伍员听了勃然大怒，一把抓住费得雄的衣襟，痛斥道：“你们这伙坏蛋，把我全家杀绝，还无耻他说我伍家兴旺!”费得雄以为伍员不可能知道这件事的详情，便要求伍员举出证人。伍员愤怒他说：“如果不是公子华建来到这里说明内情，道破你这个坏蛋的谎言，我险些儿被你骗进天罗地网!”费得雄这才无话可说。伍员痛打了他一顿，弃官而走。后来他来到吴国，打扮成一个要饭的，在热闹的街市上吹萧唱曲，终于被吴王请去，当了吴国的大夫，促使吴国战胜楚国，为父兄报了仇。</t>
-  </si>
-  <si>
     <t>返老还童</t>
   </si>
   <si>
@@ -2299,12 +2077,6 @@
     <t>楚国有一个卖兵器的人，到市场上去卖矛和盾。  好多人都来看，他就举起他的盾，向大家夸口说：“我的盾，是世界上最最坚固的，无论怎样锋利尖锐的东西也不能刺穿它!”,接着，这个卖兵器的人又拿起一支矛，大言不惭地夸起来：“我的矛，是世界上最尖利的，无论怎样牢固坚实的东西也挡不住它一戳，只要一碰上，嘿嘿，马上就会被它刺穿!” 他十分得意，便又大声吆喝起来：“快来看呀，快来买呀，世界上最最坚固的盾和最最锋利的矛!”,这时，一个看客上前拿起一支矛，又拿起一面盾牌问道：“如果用这矛去戳这盾，会怎样呢?” “这——” 围观的人先都一楞，突然爆发出一阵大笑，便都散了。  那个卖兵器的人，灰溜溜地扛着矛和盾走了。</t>
   </si>
   <si>
-    <t>人言可畏</t>
-  </si>
-  <si>
-    <t>人言可畏出处：《左传·襄公三十一年》于产曰：“人心之同，如其面焉；吾岂敢谓子面如吾面乎?”释义：这则成语的意思是人的心思像人的面貌一样，各不相同。故事：春秋时，郑国的大夫子皮打算让尹何担任自己封地上的主管，尹何是子皮家的小臣，没有管理这么大地域的经验和能力，许多人觉得此人难以胜任。为此，子皮征求辅助自己执政的子产的意见。子产说：“尹何年纪轻，恐怕不行吧。”子皮不以为然，说：“尹何谨慎、敦厚，我很喜欢他，他也不会背叛我。他虽然缺乏经验，但可以让他学呀。学的时间久了，他也就懂得治理的道理了。”子产反对说：“那不行，大凡一个人爱护另一个人，总希望对被爱护的人有利。现在你爱护一个人，却把这么重要的事交给他。这好比你让一个不会拿刀的人去割东西，那是会给割东西的人带来很大损害的。这样，今后又有谁敢再来求你保护呢?”接着，子产诚恳他说道：“您是郑国的栋梁，要是屋栋断裂了，我们这些住在屋子里的人不是也要遭殃吗？再举一个例子说吧，如果您有一匹精致美丽的锦缎，您决不会把它交给一个不会裁衣的人去学着裁制衣服，因为您怕把锦缎结糟蹋了。”说到这里，子产把话引到正题上来：“大官大邑是用来维护百姓利益的，这比那匹精致美丽的锦缎重要得多了。您连锦缎都舍不得给不会裁衣的人去裁制衣服，却为什么把大官大邑交给毫无经验的人去担任和管理呢?您这样的作法，岂不是把锦缎看得比大官大邑还要重了吗?我也从来没有听说过借做官的机会来学做官的。”子产见子皮听了在点头，又进一层说：“再拿打猎来作例子吧，有个人连马车也不会驾、弓箭都不会射，他怎么能打到野兽呢?恐怕野兽没有打着，自己却要翻车呢。管理国家大事也是如此”总要先学会再去当政而不能先当起政来再去学。硬要这样子，必定会造成重大损失。”子皮听了子产这席话，连连点头说：“您说得对极了，我太不聪明了。衣服是穿在我自己身上的，所以我知道要慎重地选择人来裁制。大官大邑关系到百姓的利益，我却非常轻视，真是太鼠目寸光了!”说到这里，子皮向子产拜了一拜，接着又说：“如果不是先生用这番话来提醒我，我还不知自己干了蠢事呢。记得从前我曾经说过，你治理郑国，我只治理我的家产，使我的身体有所寄托也就足够了。我向您请求从今以后，连我的家事也听从你的意见去做!”子产听了连连摇头说：“人心各不相同，就像人面各不相同一样，我怎么敢说你的面貌与我的面貌相同呢?我心里觉得你这样做很危险，所以据实相告。”子产这话的言外之意是，我心里的想法并不见得与你子皮的相同。子皮觉得子产对国家非常忠诚，所以把政事完全委托给他。后来，子产把郑国治理得富强起来。</t>
-  </si>
-  <si>
     <t>乘人之危</t>
   </si>
   <si>
@@ -2359,12 +2131,6 @@
     <t>在我国宋朝的时候，有一个名叫孙山的才子，他为人不但幽默，而且很善于说笑话，所以附近的人就给他取了一个「滑稽才子」的绰号。  有一次，他和一个同乡的儿子一同到京城，去参加举人的考试。放榜的时候，孙山的名字虽然被列在榜文的倒数第一名，但仍然是榜上有名，而那位和他一起去的那位同乡的儿子，却没有考上。不久，孙山先回到家里，同乡便来问他儿子有没有考取。孙山既不好意思直说，又不便隐瞒，于是，就随口念出两句不成诗的诗句来：「解元尽处是孙山，贤郎更在孙山外。」,解元，就是我国科举制度所规定的举人第一名。而孙山在诗里所谓的「解元」，乃是泛指一般考取的举人。他这首诗全部的意思是说：「举人榜上的最后一名是我孙山，而令郎的名字却还在我孙山的后面。」从此，人们便根据这个故事，把投考学校或参加各种考试，没有被录取，叫做「名落孙山」。</t>
   </si>
   <si>
-    <t>一毛不拔</t>
-  </si>
-  <si>
-    <t>出处《孟子·尽心上》杨子取为我，拔一毛而利天下,不为也。墨子兼爱，摩项放踵，利天下，为之。释义一根汗毛也不肯拔比愉非常吝啬自私。故事墨子，名翟，是站国时期的大思想家，是墨家学派的创始人：他主张“兼爱”，反对战争。差不多与墨子同一时期，有一位叫杨朱的哲学家，反对墨子的“兼爱”，主张”贵生”“重已”，重视个人生命的保存，反对他人对自己的侵夺，也反对自己对他人的侵夺。有一次，墨子的学生离滑厘问杨朱道：“如果拔你身上一根汗毛，能使天下人得到好处，你干不干?”“天下人的问题，决不是拔一根汗毛所能解决得了的!”离滑厘又说：“假使能的话，你愿意吗?”杨朱默不作答。当时的另一位大思想家、儒家学派代表孟子就此对杨朱和墨子作了评论：“杨子主张的是‘为我’，即使拔他身上一根汗毛，能使天下人得利，他也是不干的，而墨子主张‘兼爱’，只要对天下人有利，即使自己磨光了头顶，走破了脚板，他也是甘心情愿的。”</t>
-  </si>
-  <si>
     <t>天翻地覆</t>
   </si>
   <si>
@@ -2425,12 +2191,6 @@
     <t>战国时，齐人孙膑和魏人庞涓都师从鬼谷子学习兵法。后庞涓做了魏国的大将，因妒忌孙膑的才能高于自己，便砍断了他的双腿，还在他脸上刺字、涂墨。后来，孙膑做了齐国的军师，辅助大将田忌率兵五万攻魏救韩。孙膑照田忌所说，挥师对魏都大梁发动进攻，逼庞涓从韩国退兵。果然，庞涓闻讯忙从韩国撤军。此时齐军已进入魏国。孙膑又对田忌说：“魏国的军队向来以勇猛凶悍著称，他们根本不会把我们齐国的军队放在眼中。会用兵的人，要懂得因势利导的意思，也就是说要顺着对方思想发展的趋势，加以引导，引诱他们中计。”于是，孙膑把吃饭的灶每天减少一批，制造出齐军大量逃亡的假象。庞涓果然中计，留下步兵，只带精锐部队追击。孙膑在马陵设下埋伏，并在一棵树上写下“庞涓死于此树之下”八个大字。庞涓到了马陵，想点火看树上的字。顿时，齐军万箭齐发，魏军伤亡惨重，庞涓身中六箭。兵败如山倒，他只得无奈地拔剑自刎。  这个成语的主人公孙膑并不是叫孙膑，而是受了“膑刑”（断双腿）之后才得了这个名字的。</t>
   </si>
   <si>
-    <t>过河拆桥</t>
-  </si>
-  <si>
-    <t>出处《元史·彻里帖木耳传》治书侍御史普化消有王曰：“参政可谓过河拆桥者矣”。释义比喻达到某种目的后，就把帮助过自己的人一脚踢开。故事元朝的大臣彻里帖木耳，处理公务精明干练，善于决断。有一年他在浙江任职，正好逢上省城举行科举考试。他目睹了这场考试，从官府到考生都花费了许多钱财，并且免不了有营私舞弊的情况。他暗暗下了决心，待到自己掌握了大权，一定要促使朝廷废除这种制度。后来，他升任相当于副宰相的中书平章政事，便奏告元顺帝，请求废除科举制度。中国科举制度隋唐以来已实行了七百多年，要废除它是一件非常重大的事，在朝中引起了巨大的反响。大师伯颜表示支持，但反对的很多。有位御史坚决反对废除科举制度，他请求顺帝治彻里帖木耳的罪。不料顺帝虽然很昏庸，但对废除科举制度倒是赞成的。因此不仅不支持那位御史，反而把他贬到外地去当官。不久，他命人起草了废除科举制度的诏书，准备颁发下去。书还未下达，地位略低于平章的参政许有王，又出来反对废除科举制度。他对伯颜说：“如果废除科举考试制度，世上有才能的人都会怨恨的。”伯颜针锋相对地说：“如果继续实行科举考试制度，世上贪赃枉法的人还要多。”许有王反驳说：“没有实行科举考试制度的时候，贪赃枉法的人也不是很多吗?”伯颜讽刺他说：“我看中举的人中有用之材太少，只有你参政一个人可以任用!”许有王不服气，举出许多当时中举的高官来反驳伯额。伯颜当然不会改变自己的观点，于是两人争论得非常激烈。第二天，满朝文武被召到祟天门听读皇帝下达的废除科举制席的诏书，许有王还特地被侮辱性地通知在班首听读。看来，皇帝特意要让这个反对者将诏书听得明白些。许有王心里非常不愿意，但又惧怕得罪皇帝遭到祸害，只好勉强跪在百官前列听读诏书。听读完诏书后，百官纷纷回府，许有王满脸不高兴地低头走路。有个名叫普化的御史特地走到他边上，凑着他的耳朵冷嘲热讽他说：“参政，你这下成为过河拆桥的人啦。这话的意思是，你许参政是靠科举当官的，现在宣读皇上关于废除科举制度诏书，你跪在最前面，似乎是废除科举制度的领头人，就像一个人过了桥后就把桥拆掉一样。许有王听了又羞又恨，加快步伐离开。之后他借口有病，再也不上朝了。</t>
-  </si>
-  <si>
     <t>视死如归</t>
   </si>
   <si>
@@ -2473,22 +2233,10 @@
     <t>魏晋时期有七位名士，他们是嵇(jī)康、阮籍(ruǎn jí)、阮咸、山涛、向秀、王戎(róng)和刘剑。这七人常在嵇康家附近的一大片竹林里游玩饮酒，所以人称”竹林七贤”。 这”七贤”在生活上都有一些怪脾气：放任随便，毫不注意仪容和身份。就拿其中的阮籍来说吧．他喝醉了酒就往地上一躺，也不管那地上干净不干净，往往好几天不醒。他听说步兵校尉衙门能够酿造美酒，就请求到那里去任职，以便痛痛快快地喝酒。所以人们根据他的官街，也称他”阮步兵”。阮咸是阮籍的侄子。叔侄也还都爱好音乐。际籍 既能弹琴又能唱歌，阮咸琵琶弹得很好，又精通音律。他特别喜爱一种形似月琴的拔弦乐器，这种乐器据说是他发明的，所以后来被称 为”阮咸”，简称”阮”。 阮氏家族住在同一条街上。阮籍、阮咸叔侄俩在街的南面，阮氏其他兄弟住在街的北面。叔侄俩家境清贫，而街北面的阮氏兄弟却大都是富贵人。但是，阮籍和阮咸并不因人穷而志短。 根据当地的习俗，每年七月六月，家家户户都要翻箱倒筐，把所有的衣物都拿出来晒一晒，以防止发霉虫蛀。街北的那些阮氏兄弟富有，穿的是绫罗绸缎，因此晒出来的衣服光彩夺目，看得人们眼花缭乱。阮咸看到对面庭院里挂满了衣服，便对叔叔说：”我们也拿些衣服去晒晒吧!” 可是，他俩找来找去找不到什么衣服可晒，就把一条粗布的牛鼻裤子用竹竿串起来，高高地挂在庭院中。邻居见了，对阮咸说：”你还是不晒算了，这样的衣服晒出去太寒酸了!” 阮咸回答说：”这是一种习俗，我们也不能不这样做呀!就让它这样晒吧!”</t>
   </si>
   <si>
-    <t>一鼓作气</t>
-  </si>
-  <si>
-    <t>春秋时，齐国发兵攻打鲁国（两国都在今山东省境）。当时齐国强大，鲁国弱小，双方实力悬殊。可是结果鲁国却以弱胜强，把齐军打得大败。据《左传》载，这次鲁国的胜利，与曹刿的精明策划有很大关系。  曹刿既非武将，也非文臣，但深通兵法。他得悉齐国发兵来犯，鲁庄公准备抵抗，便主动要求面见庄公。他的亲友邻人劝他：“国家大事，自有那些天天吃肉的大官管着，你何必瞎操心？”曹刿说：“那些大官目光短浅，不会有深谋远见。”,曹刿见了庄公，首先提出：取信于民，是战前重要的政治准备，也是获胜的保证。并要求作战时允许他一起去，于是庄公便叫他同车出发。在长勺的地方，齐、鲁两军相遇。双方列成阵势，战斗即将开始。只见齐军大擂战鼓，准备进兵。庄公也准备擂鼓迎击。曹刿阻止道：“等一等。”齐军见鲁军没有反应，又擂了一通鼓。这样齐军擂鼓三通，鲁军总是按兵不动。直到齐军三通鼓罢，曹刿才说：“现在可以进兵了！”鲁军战鼓一响，下令冲杀，士兵们一声呐喊，直扑敌阵，猛不可当。齐军大败，狼狈而逃。  庄公正想下令追击，曹刿却又阻止，并下车细看地面齐军兵车轮迹，又攀上车前横木，注意暸望敌军退走的情形，然后说：“现在可以追击了！”庄公当即下令追击。鲁军乘胜前进，把齐军全部赶出国境。  这次获胜，鲁庄公却不明由曹刿为什么这样指挥。曹刿说：“战，勇气也。一鼓作气，再而衰，三而竭。彼竭我盈，故克之（战斗，主要是靠勇气。第一通鼓时，士兵们勇气最足，到再擂鼓时，勇气有些衰落；到第三通鼓，勇气更全部消失了。敌军勇气消失，我们则一鼓作气，斗志昂扬，所以打败了他们）”。曹刿又说：“齐国军力不能低估，说不定会设下伏兵，诈败引诱我们。我‘视其辙乱，望其旗靡’，这才放心追击 ”。（“辙乱”，轮迹混乱；“旗靡”，旗帜倒掩，说明仓皇逃窜。）,补充说明：“一鼓作气”、“再衰三竭”和“辙乱旗靡”，出处即《左传》所载“曹刿论战”的故事。做任何事情，趁一开始情绪高涨、干劲旺盛时全力以赴，这叫“一鼓作气”。一鼓作气，把进攻的目标攻下，叫做“一鼓而下”。如果事情老干不好，原有的勇气和力量逐渐衰退而尽，就叫“再衰三竭”。出处《左传·庄公十年》</t>
-  </si>
-  <si>
     <t>退避三舍</t>
   </si>
   <si>
     <t>春秋时候，晋献公听信谗言，杀了太子申生，又派人捉拿申生的弟弟重耳。重耳闻讯，逃出了晋国，在外流亡十几年。经过千幸万苦,重耳来到楚国。楚成王认为重耳日后必有大作为，就以国群之礼相迎，待他如上宾。一天，楚王设宴招待重耳，两人饮洒叙话，气氛十分融洽。忽然楚王问重耳：“你若有一天回晋国当上国君，该怎么报答我呢？”重耳略一思索说：“美女待从、珍宝丝绸，大王您有的是，珍禽羽毛，象牙兽皮，更是楚地的盛产，晋国哪有什么珍奇物品献给大王呢？”楚王说：“公子过谦了。话虽然这么说，可总该对我有所表示吧？”重耳笑笑回答道：“要是托您的福。果真能回国当政的话，我愿与贵国友好。假如有一天，晋楚国之间发生战争，我一定命令军队先退避三舍（一舍等于三十里），如果还不能得到您的原谅，我再与您交战。”四年后，重耳真的回到晋国当了国君，就是历史上有名的晋文公。晋国在他的治理下日益强大。公元前633年，楚国和晋国的军队在作战时相遇。晋文公为了实现他许下的诺言，下令军队后退九十里，驻扎在城濮。楚军见晋军后退，以为对方害怕了，马上追击。晋军利用楚军骄傲轻敌的弱点，集中兵力，大破楚军，取得了城濮之战的胜利。故事出自《左传·僖公二十二年》。成语“退避三舍”比喻不与人相争或主动让步。</t>
-  </si>
-  <si>
-    <t>负隅顽抗</t>
-  </si>
-  <si>
-    <t>出处《孟子·尽心下》则之野，有众逐虎。虎负隅(即隅)，莫之敢撄。释义“负”，依靠；“隅”，山势险要的地方。比喻依仗某种条件顽固抵抗。故事战国时，有一年齐国发生饥荒，许多人饿死。孟子的弟子陈臻(zhen)听到这个消息，急忙来找老师，心情沉重他说：“老师，您听说了吗?齐国闹饥荒，人都快饿死了。人都以为老师您会再次劝说齐王，请他打开棠地的谷仓救济百姓。我看不能再这样做了吧。”孟子回答说：“再这样做，我就成为冯妇了。”接着，孟子向陈臻讲述了有关冯妇的故事。冯妇是晋国的猎手，善于和老虎博斗。后来他成为善人，不再打虎了，他的名字也几乎被人们忘掉。有一年，某座山里出现了一只猛虎，常常伤害行人。几个年轻猎人联合起来去打虎，他们把老虎迫至山的深处，老虎背靠着一介山势弯曲险要的地方，面向众人。它瞪圆了眼睛吼叫，没有人敢上前去捕捉。就在这时，冯妇坐车路过这儿。猎手们见了他，都快步上前迎接，请他帮助打虎。冯妇下了车，挽起袖子与老虎搏斗起来；经过一场拼博，终于打死了猛虎，为民除了害。年轻的猎手们高兴地谢他。可是一些读书人却讥笑他。</t>
   </si>
   <si>
     <t>一挥而就</t>
@@ -2604,15 +2352,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2625,41 +2395,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2679,8 +2434,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2688,29 +2450,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2731,6 +2478,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2747,16 +2502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2771,7 +2519,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,13 +2603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,7 +2627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,7 +2651,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2825,133 +2699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,6 +2710,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3000,15 +2763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3024,26 +2778,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3062,6 +2801,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3070,10 +2818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3082,133 +2830,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3538,10 +3286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B431"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4567,2434 +4315,2093 @@
         <v>254</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>860</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A41:A388">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
